--- a/history_data.xlsx
+++ b/history_data.xlsx
@@ -481,2566 +481,2556 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64027</v>
+        <v>60205.5</v>
       </c>
       <c r="B2" t="n">
-        <v>64189</v>
+        <v>60455</v>
       </c>
       <c r="C2" t="n">
-        <v>63920.5</v>
+        <v>59909</v>
       </c>
       <c r="D2" t="n">
-        <v>63933</v>
+        <v>60113</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45396.625</v>
+        <v>45399.69791666666</v>
       </c>
       <c r="F2" t="n">
-        <v>9681</v>
+        <v>13795</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64351</v>
+        <v>60386</v>
       </c>
       <c r="B3" t="n">
-        <v>64474.5</v>
+        <v>60589</v>
       </c>
       <c r="C3" t="n">
-        <v>63948.5</v>
+        <v>60131</v>
       </c>
       <c r="D3" t="n">
-        <v>64012.5</v>
+        <v>60199</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45396.63541666666</v>
+        <v>45399.70833333334</v>
       </c>
       <c r="F3" t="n">
-        <v>12805</v>
+        <v>12773</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>64127.5</v>
+        <v>60779.5</v>
       </c>
       <c r="B4" t="n">
-        <v>64500.5</v>
+        <v>60825.5</v>
       </c>
       <c r="C4" t="n">
-        <v>64027</v>
+        <v>60400.5</v>
       </c>
       <c r="D4" t="n">
-        <v>64346</v>
+        <v>60400.5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45396.64583333334</v>
+        <v>45399.71875</v>
       </c>
       <c r="F4" t="n">
-        <v>9778</v>
+        <v>12084</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64192.5</v>
+        <v>60761</v>
       </c>
       <c r="B5" t="n">
-        <v>64237.5</v>
+        <v>60926</v>
       </c>
       <c r="C5" t="n">
-        <v>64020.5</v>
+        <v>60607</v>
       </c>
       <c r="D5" t="n">
-        <v>64127.5</v>
+        <v>60791</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45396.65625</v>
+        <v>45399.72916666666</v>
       </c>
       <c r="F5" t="n">
-        <v>5129</v>
+        <v>10429</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64364.5</v>
+        <v>61297.5</v>
       </c>
       <c r="B6" t="n">
-        <v>64423</v>
+        <v>61380.5</v>
       </c>
       <c r="C6" t="n">
-        <v>64130</v>
+        <v>60612</v>
       </c>
       <c r="D6" t="n">
-        <v>64200.5</v>
+        <v>60760</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45396.66666666666</v>
+        <v>45399.73958333334</v>
       </c>
       <c r="F6" t="n">
-        <v>9793</v>
+        <v>19619</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>64212.5</v>
+        <v>60685.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64637</v>
+        <v>61686.5</v>
       </c>
       <c r="B7" t="n">
-        <v>64709</v>
+        <v>61810.5</v>
       </c>
       <c r="C7" t="n">
-        <v>64351</v>
+        <v>61185.5</v>
       </c>
       <c r="D7" t="n">
-        <v>64369.5</v>
+        <v>61308</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45396.67708333334</v>
+        <v>45399.75</v>
       </c>
       <c r="F7" t="n">
-        <v>11179</v>
+        <v>24386</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>64354</v>
+        <v>61019.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64449.5</v>
+        <v>61809</v>
       </c>
       <c r="B8" t="n">
-        <v>64761</v>
+        <v>61985</v>
       </c>
       <c r="C8" t="n">
-        <v>64372</v>
+        <v>61533.5</v>
       </c>
       <c r="D8" t="n">
-        <v>64632</v>
+        <v>61732</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45396.6875</v>
+        <v>45399.76041666666</v>
       </c>
       <c r="F8" t="n">
-        <v>8272</v>
+        <v>15246</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>64385.8</v>
+        <v>61282.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>64429</v>
+        <v>61845</v>
       </c>
       <c r="B9" t="n">
-        <v>64501</v>
+        <v>61884</v>
       </c>
       <c r="C9" t="n">
-        <v>64329</v>
+        <v>61449</v>
       </c>
       <c r="D9" t="n">
-        <v>64449.5</v>
+        <v>61816.5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45396.69791666666</v>
+        <v>45399.77083333334</v>
       </c>
       <c r="F9" t="n">
-        <v>4686</v>
+        <v>15724</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>64400.2</v>
+        <v>61470.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63784</v>
+        <v>61461.5</v>
       </c>
       <c r="B10" t="n">
-        <v>64601</v>
+        <v>61849.5</v>
       </c>
       <c r="C10" t="n">
-        <v>63585.5</v>
+        <v>61400</v>
       </c>
       <c r="D10" t="n">
-        <v>64457</v>
+        <v>61849.5</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45396.70833333334</v>
+        <v>45399.78125</v>
       </c>
       <c r="F10" t="n">
-        <v>14047</v>
+        <v>19654</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>64194.8</v>
+        <v>61467.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63164</v>
+        <v>61168.5</v>
       </c>
       <c r="B11" t="n">
-        <v>63924</v>
+        <v>61482.5</v>
       </c>
       <c r="C11" t="n">
-        <v>62586</v>
+        <v>61060</v>
       </c>
       <c r="D11" t="n">
-        <v>63743.5</v>
+        <v>61452</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45396.71875</v>
+        <v>45399.79166666666</v>
       </c>
       <c r="F11" t="n">
-        <v>50349</v>
+        <v>12337</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>63851.2</v>
+        <v>61367.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63892</v>
+        <v>61017</v>
       </c>
       <c r="B12" t="n">
-        <v>64263</v>
+        <v>61291.5</v>
       </c>
       <c r="C12" t="n">
-        <v>63100.5</v>
+        <v>60911</v>
       </c>
       <c r="D12" t="n">
-        <v>63122</v>
+        <v>61158</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45396.72916666666</v>
+        <v>45399.80208333334</v>
       </c>
       <c r="F12" t="n">
-        <v>24549</v>
+        <v>8393</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>63864.8</v>
+        <v>61250.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63894.5</v>
+        <v>60977.5</v>
       </c>
       <c r="B13" t="n">
-        <v>64056</v>
+        <v>61251.5</v>
       </c>
       <c r="C13" t="n">
-        <v>63600</v>
+        <v>60729</v>
       </c>
       <c r="D13" t="n">
-        <v>63891</v>
+        <v>61022.5</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45396.73958333334</v>
+        <v>45399.8125</v>
       </c>
       <c r="F13" t="n">
-        <v>10161</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>63874.7</v>
+        <v>61159.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64295</v>
+        <v>61026.5</v>
       </c>
       <c r="B14" t="n">
-        <v>64393</v>
+        <v>61335.5</v>
       </c>
       <c r="C14" t="n">
-        <v>63766.5</v>
+        <v>60925</v>
       </c>
       <c r="D14" t="n">
-        <v>63885.5</v>
+        <v>60976.5</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45396.75</v>
+        <v>45399.82291666666</v>
       </c>
       <c r="F14" t="n">
-        <v>10067</v>
+        <v>7036</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>64014.8</v>
+        <v>61115.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>64337</v>
+        <v>61039.5</v>
       </c>
       <c r="B15" t="n">
-        <v>64456</v>
+        <v>61237</v>
       </c>
       <c r="C15" t="n">
-        <v>64103</v>
+        <v>60925</v>
       </c>
       <c r="D15" t="n">
-        <v>64267.5</v>
+        <v>61052</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45396.76041666666</v>
+        <v>45399.83333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>10497</v>
+        <v>4848</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>64122.2</v>
+        <v>61090</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>64508.5</v>
+        <v>61392.5</v>
       </c>
       <c r="B16" t="n">
-        <v>64712</v>
+        <v>61456.5</v>
       </c>
       <c r="C16" t="n">
-        <v>64330.5</v>
+        <v>61009</v>
       </c>
       <c r="D16" t="n">
-        <v>64330.5</v>
+        <v>61051.5</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45396.77083333334</v>
+        <v>45399.84375</v>
       </c>
       <c r="F16" t="n">
-        <v>10052</v>
-      </c>
-      <c r="G16" t="n">
-        <v>64163.5</v>
-      </c>
+        <v>4899</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>64251</v>
+        <v>61190.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>64411</v>
+        <v>61161.5</v>
       </c>
       <c r="B17" t="n">
-        <v>64572.5</v>
+        <v>61473</v>
       </c>
       <c r="C17" t="n">
-        <v>64369</v>
+        <v>61151</v>
       </c>
       <c r="D17" t="n">
-        <v>64538.5</v>
+        <v>61373</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45396.78125</v>
+        <v>45399.85416666666</v>
       </c>
       <c r="F17" t="n">
-        <v>3155</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64189.1</v>
-      </c>
+        <v>4241</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>64304.3</v>
+        <v>61181.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>64110.5</v>
+        <v>60853</v>
       </c>
       <c r="B18" t="n">
-        <v>64494</v>
+        <v>61260.5</v>
       </c>
       <c r="C18" t="n">
-        <v>64094</v>
+        <v>60783.5</v>
       </c>
       <c r="D18" t="n">
-        <v>64411</v>
+        <v>61171.5</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45396.79166666666</v>
+        <v>45399.86458333334</v>
       </c>
       <c r="F18" t="n">
-        <v>5856</v>
-      </c>
-      <c r="G18" t="n">
-        <v>64173.1</v>
-      </c>
+        <v>7696</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>64239.7</v>
+        <v>61071.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>64019</v>
+        <v>61468</v>
       </c>
       <c r="B19" t="n">
-        <v>64201.5</v>
+        <v>61541</v>
       </c>
       <c r="C19" t="n">
-        <v>63937</v>
+        <v>60856.5</v>
       </c>
       <c r="D19" t="n">
-        <v>64115.5</v>
+        <v>60856.5</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45396.80208333334</v>
+        <v>45399.875</v>
       </c>
       <c r="F19" t="n">
-        <v>4677</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64165.9</v>
-      </c>
+        <v>7550</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>64166.1</v>
+        <v>61203.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>64265</v>
+        <v>61395.5</v>
       </c>
       <c r="B20" t="n">
-        <v>64313</v>
+        <v>61671</v>
       </c>
       <c r="C20" t="n">
-        <v>63974.5</v>
+        <v>61356.5</v>
       </c>
       <c r="D20" t="n">
-        <v>64000</v>
+        <v>61452</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45396.8125</v>
+        <v>45399.88541666666</v>
       </c>
       <c r="F20" t="n">
-        <v>4348</v>
-      </c>
-      <c r="G20" t="n">
-        <v>64170.7</v>
-      </c>
+        <v>9083</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>64199.1</v>
+        <v>61267.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>64174</v>
+        <v>61136.5</v>
       </c>
       <c r="B21" t="n">
-        <v>64383</v>
+        <v>61542.5</v>
       </c>
       <c r="C21" t="n">
-        <v>64145.5</v>
+        <v>61035.5</v>
       </c>
       <c r="D21" t="n">
-        <v>64265</v>
+        <v>61396.5</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45396.82291666666</v>
+        <v>45399.89583333334</v>
       </c>
       <c r="F21" t="n">
-        <v>2046</v>
+        <v>4776</v>
       </c>
       <c r="G21" t="n">
-        <v>64158</v>
+        <v>61143.4</v>
       </c>
       <c r="H21" t="n">
-        <v>64190.7</v>
+        <v>61224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>64033.5</v>
+        <v>61318.5</v>
       </c>
       <c r="B22" t="n">
-        <v>64353.5</v>
+        <v>61358.5</v>
       </c>
       <c r="C22" t="n">
-        <v>63953</v>
+        <v>61073.5</v>
       </c>
       <c r="D22" t="n">
-        <v>64184</v>
+        <v>61137.5</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45396.83333333334</v>
+        <v>45399.90625</v>
       </c>
       <c r="F22" t="n">
-        <v>12222</v>
+        <v>5340</v>
       </c>
       <c r="G22" t="n">
-        <v>64117.8</v>
+        <v>61199</v>
       </c>
       <c r="H22" t="n">
-        <v>64138.3</v>
+        <v>61255.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>64132.5</v>
+        <v>61279.5</v>
       </c>
       <c r="B23" t="n">
-        <v>64161</v>
+        <v>61368</v>
       </c>
       <c r="C23" t="n">
-        <v>63986.5</v>
+        <v>61171</v>
       </c>
       <c r="D23" t="n">
-        <v>64003</v>
+        <v>61368</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45396.84375</v>
+        <v>45399.91666666666</v>
       </c>
       <c r="F23" t="n">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="G23" t="n">
-        <v>64096.6</v>
+        <v>61243.7</v>
       </c>
       <c r="H23" t="n">
-        <v>64136.4</v>
+        <v>61263.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>64126.5</v>
+        <v>61388</v>
       </c>
       <c r="B24" t="n">
-        <v>64279.5</v>
+        <v>61429</v>
       </c>
       <c r="C24" t="n">
-        <v>64070</v>
+        <v>61269</v>
       </c>
       <c r="D24" t="n">
-        <v>64145</v>
+        <v>61280</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45396.85416666666</v>
+        <v>45399.92708333334</v>
       </c>
       <c r="F24" t="n">
-        <v>3756</v>
+        <v>3151</v>
       </c>
       <c r="G24" t="n">
-        <v>64076.5</v>
+        <v>61274.1</v>
       </c>
       <c r="H24" t="n">
-        <v>64133.1</v>
+        <v>61305</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>63850.5</v>
+        <v>61518</v>
       </c>
       <c r="B25" t="n">
-        <v>64121</v>
+        <v>61611.5</v>
       </c>
       <c r="C25" t="n">
-        <v>63713</v>
+        <v>61376</v>
       </c>
       <c r="D25" t="n">
-        <v>64121</v>
+        <v>61388</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45396.86458333334</v>
+        <v>45399.9375</v>
       </c>
       <c r="F25" t="n">
-        <v>7357</v>
+        <v>7461</v>
       </c>
       <c r="G25" t="n">
-        <v>64080.9</v>
+        <v>61312</v>
       </c>
       <c r="H25" t="n">
-        <v>64038.9</v>
+        <v>61376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>63707.5</v>
+        <v>61706.5</v>
       </c>
       <c r="B26" t="n">
-        <v>63861</v>
+        <v>61736.5</v>
       </c>
       <c r="C26" t="n">
-        <v>63548</v>
+        <v>61488.5</v>
       </c>
       <c r="D26" t="n">
-        <v>63861</v>
+        <v>61527.5</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45396.875</v>
+        <v>45399.94791666666</v>
       </c>
       <c r="F26" t="n">
-        <v>3023</v>
+        <v>5025</v>
       </c>
       <c r="G26" t="n">
-        <v>64117.1</v>
+        <v>61332.4</v>
       </c>
       <c r="H26" t="n">
-        <v>63928.4</v>
+        <v>61486.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>63641</v>
+        <v>61600.5</v>
       </c>
       <c r="B27" t="n">
-        <v>63836</v>
+        <v>61780</v>
       </c>
       <c r="C27" t="n">
-        <v>63322.5</v>
+        <v>61583</v>
       </c>
       <c r="D27" t="n">
-        <v>63700.5</v>
+        <v>61712.5</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45396.88541666666</v>
+        <v>45399.95833333334</v>
       </c>
       <c r="F27" t="n">
-        <v>4941</v>
+        <v>1690</v>
       </c>
       <c r="G27" t="n">
-        <v>64100.4</v>
+        <v>61328.1</v>
       </c>
       <c r="H27" t="n">
-        <v>63832.6</v>
+        <v>61524.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>63473</v>
+        <v>61297.5</v>
       </c>
       <c r="B28" t="n">
-        <v>63746</v>
+        <v>61601.5</v>
       </c>
       <c r="C28" t="n">
-        <v>63431.5</v>
+        <v>61279.5</v>
       </c>
       <c r="D28" t="n">
-        <v>63633.5</v>
+        <v>61601.5</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45396.89583333334</v>
+        <v>45399.96875</v>
       </c>
       <c r="F28" t="n">
-        <v>1429</v>
+        <v>3754</v>
       </c>
       <c r="G28" t="n">
-        <v>64072.3</v>
+        <v>61302.6</v>
       </c>
       <c r="H28" t="n">
-        <v>63712.7</v>
+        <v>61448.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>63697.5</v>
+        <v>61341</v>
       </c>
       <c r="B29" t="n">
-        <v>63792</v>
+        <v>61377.5</v>
       </c>
       <c r="C29" t="n">
-        <v>63449.5</v>
+        <v>61228.5</v>
       </c>
       <c r="D29" t="n">
-        <v>63473</v>
+        <v>61291</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45396.90625</v>
+        <v>45399.97916666666</v>
       </c>
       <c r="F29" t="n">
-        <v>2089</v>
+        <v>2855</v>
       </c>
       <c r="G29" t="n">
-        <v>64032.5</v>
+        <v>61277.4</v>
       </c>
       <c r="H29" t="n">
-        <v>63707.7</v>
+        <v>61412.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>64985.5</v>
+        <v>61292</v>
       </c>
       <c r="B30" t="n">
-        <v>65415.5</v>
+        <v>61392.5</v>
       </c>
       <c r="C30" t="n">
-        <v>63668</v>
+        <v>61250</v>
       </c>
       <c r="D30" t="n">
-        <v>63668</v>
+        <v>61313</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45396.91666666666</v>
+        <v>45399.98958333334</v>
       </c>
       <c r="F30" t="n">
-        <v>25351</v>
+        <v>815</v>
       </c>
       <c r="G30" t="n">
-        <v>64075.7</v>
+        <v>61268.9</v>
       </c>
       <c r="H30" t="n">
-        <v>64133.6</v>
+        <v>61372.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65324</v>
+        <v>61133</v>
       </c>
       <c r="B31" t="n">
-        <v>65408.5</v>
+        <v>61487.5</v>
       </c>
       <c r="C31" t="n">
-        <v>64716</v>
+        <v>61071</v>
       </c>
       <c r="D31" t="n">
-        <v>64871.5</v>
+        <v>61282.5</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45396.92708333334</v>
+        <v>45400</v>
       </c>
       <c r="F31" t="n">
-        <v>7082</v>
+        <v>7804</v>
       </c>
       <c r="G31" t="n">
-        <v>64130.1</v>
+        <v>61267.1</v>
       </c>
       <c r="H31" t="n">
-        <v>64530.4</v>
+        <v>61292.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>65148.5</v>
+        <v>61213</v>
       </c>
       <c r="B32" t="n">
-        <v>65486</v>
+        <v>61252</v>
       </c>
       <c r="C32" t="n">
-        <v>65042.5</v>
+        <v>60953.5</v>
       </c>
       <c r="D32" t="n">
-        <v>65356</v>
+        <v>61140</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45396.9375</v>
+        <v>45400.01041666666</v>
       </c>
       <c r="F32" t="n">
-        <v>5848</v>
+        <v>5727</v>
       </c>
       <c r="G32" t="n">
-        <v>64179.2</v>
+        <v>61276.9</v>
       </c>
       <c r="H32" t="n">
-        <v>64736.4</v>
+        <v>61266.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65358.5</v>
+        <v>61242</v>
       </c>
       <c r="B33" t="n">
-        <v>65395.5</v>
+        <v>61304</v>
       </c>
       <c r="C33" t="n">
-        <v>64968</v>
+        <v>60968</v>
       </c>
       <c r="D33" t="n">
-        <v>65121</v>
+        <v>61183</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45396.94791666666</v>
+        <v>45400.02083333334</v>
       </c>
       <c r="F33" t="n">
-        <v>7561</v>
+        <v>2765</v>
       </c>
       <c r="G33" t="n">
-        <v>64262.4</v>
+        <v>61290.1</v>
       </c>
       <c r="H33" t="n">
-        <v>64943.8</v>
+        <v>61258.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>65365</v>
+        <v>61521</v>
       </c>
       <c r="B34" t="n">
-        <v>65408</v>
+        <v>61545</v>
       </c>
       <c r="C34" t="n">
-        <v>65084.5</v>
+        <v>61216.5</v>
       </c>
       <c r="D34" t="n">
-        <v>65321</v>
+        <v>61234.5</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45396.95833333334</v>
+        <v>45400.03125</v>
       </c>
       <c r="F34" t="n">
-        <v>3510</v>
+        <v>5259</v>
       </c>
       <c r="G34" t="n">
-        <v>64352.2</v>
+        <v>61314.8</v>
       </c>
       <c r="H34" t="n">
-        <v>65084.2</v>
+        <v>61345.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>65549.5</v>
+        <v>61593</v>
       </c>
       <c r="B35" t="n">
-        <v>65888</v>
+        <v>61686.5</v>
       </c>
       <c r="C35" t="n">
-        <v>65241.5</v>
+        <v>61495.5</v>
       </c>
       <c r="D35" t="n">
-        <v>65310.5</v>
+        <v>61532.5</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45396.96875</v>
+        <v>45400.04166666666</v>
       </c>
       <c r="F35" t="n">
-        <v>10319</v>
+        <v>2976</v>
       </c>
       <c r="G35" t="n">
-        <v>64437.8</v>
+        <v>61342.5</v>
       </c>
       <c r="H35" t="n">
-        <v>65239.3</v>
+        <v>61428.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>65780</v>
+        <v>61609.5</v>
       </c>
       <c r="B36" t="n">
-        <v>65787.5</v>
+        <v>61662.5</v>
       </c>
       <c r="C36" t="n">
-        <v>65395.5</v>
+        <v>61392.5</v>
       </c>
       <c r="D36" t="n">
-        <v>65555</v>
+        <v>61618.5</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45396.97916666666</v>
+        <v>45400.05208333334</v>
       </c>
       <c r="F36" t="n">
-        <v>4183</v>
+        <v>3247</v>
       </c>
       <c r="G36" t="n">
-        <v>64544.9</v>
+        <v>61353.4</v>
       </c>
       <c r="H36" t="n">
-        <v>65419.5</v>
+        <v>61488.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>65681</v>
+        <v>61542</v>
       </c>
       <c r="B37" t="n">
-        <v>65765.5</v>
+        <v>61611.5</v>
       </c>
       <c r="C37" t="n">
-        <v>65562</v>
+        <v>61438.5</v>
       </c>
       <c r="D37" t="n">
-        <v>65763.5</v>
+        <v>61543</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45396.98958333334</v>
+        <v>45400.0625</v>
       </c>
       <c r="F37" t="n">
-        <v>4965</v>
+        <v>1351</v>
       </c>
       <c r="G37" t="n">
-        <v>64654.7</v>
+        <v>61372.4</v>
       </c>
       <c r="H37" t="n">
-        <v>65506.7</v>
+        <v>61506.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>65690</v>
+        <v>61665.5</v>
       </c>
       <c r="B38" t="n">
-        <v>65881</v>
+        <v>61679.5</v>
       </c>
       <c r="C38" t="n">
-        <v>65414</v>
+        <v>61474</v>
       </c>
       <c r="D38" t="n">
-        <v>65674.5</v>
+        <v>61524</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45397</v>
+        <v>45400.07291666666</v>
       </c>
       <c r="F38" t="n">
-        <v>6163</v>
+        <v>1714</v>
       </c>
       <c r="G38" t="n">
-        <v>64758.5</v>
+        <v>61413</v>
       </c>
       <c r="H38" t="n">
-        <v>65567.8</v>
+        <v>61559.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>65499</v>
+        <v>61747</v>
       </c>
       <c r="B39" t="n">
-        <v>65760</v>
+        <v>61955</v>
       </c>
       <c r="C39" t="n">
-        <v>65387</v>
+        <v>61596</v>
       </c>
       <c r="D39" t="n">
-        <v>65712.5</v>
+        <v>61669</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45397.01041666666</v>
+        <v>45400.08333333334</v>
       </c>
       <c r="F39" t="n">
-        <v>4107</v>
+        <v>10929</v>
       </c>
       <c r="G39" t="n">
-        <v>64850</v>
+        <v>61427</v>
       </c>
       <c r="H39" t="n">
-        <v>65544.89999999999</v>
+        <v>61622</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>65637</v>
+        <v>61533</v>
       </c>
       <c r="B40" t="n">
-        <v>65725.5</v>
+        <v>61727.5</v>
       </c>
       <c r="C40" t="n">
-        <v>65304</v>
+        <v>61471</v>
       </c>
       <c r="D40" t="n">
-        <v>65455</v>
+        <v>61724</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45397.02083333334</v>
+        <v>45400.09375</v>
       </c>
       <c r="F40" t="n">
-        <v>5049</v>
+        <v>7094</v>
       </c>
       <c r="G40" t="n">
-        <v>64969.1</v>
+        <v>61433.8</v>
       </c>
       <c r="H40" t="n">
-        <v>65575.60000000001</v>
+        <v>61592.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65518.5</v>
+        <v>61628.5</v>
       </c>
       <c r="B41" t="n">
-        <v>65761.5</v>
+        <v>61728.5</v>
       </c>
       <c r="C41" t="n">
-        <v>65400.5</v>
+        <v>61519</v>
       </c>
       <c r="D41" t="n">
-        <v>65652.5</v>
+        <v>61524.5</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45397.03125</v>
+        <v>45400.10416666666</v>
       </c>
       <c r="F41" t="n">
-        <v>5327</v>
+        <v>2128</v>
       </c>
       <c r="G41" t="n">
-        <v>65089.9</v>
+        <v>61458.4</v>
       </c>
       <c r="H41" t="n">
-        <v>65556.5</v>
+        <v>61604.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>65409.5</v>
+        <v>61685</v>
       </c>
       <c r="B42" t="n">
-        <v>65543.5</v>
+        <v>61721.5</v>
       </c>
       <c r="C42" t="n">
-        <v>65303</v>
+        <v>61567</v>
       </c>
       <c r="D42" t="n">
-        <v>65507</v>
+        <v>61622</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45397.04166666666</v>
+        <v>45400.11458333334</v>
       </c>
       <c r="F42" t="n">
-        <v>5099</v>
+        <v>2904</v>
       </c>
       <c r="G42" t="n">
-        <v>65207.8</v>
+        <v>61476.8</v>
       </c>
       <c r="H42" t="n">
-        <v>65507.5</v>
+        <v>61631.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>65597.5</v>
+        <v>62091.5</v>
       </c>
       <c r="B43" t="n">
-        <v>65598.5</v>
+        <v>62186.5</v>
       </c>
       <c r="C43" t="n">
-        <v>65372</v>
+        <v>61681</v>
       </c>
       <c r="D43" t="n">
-        <v>65418</v>
+        <v>61681</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45397.05208333334</v>
+        <v>45400.125</v>
       </c>
       <c r="F43" t="n">
-        <v>3455</v>
+        <v>9328</v>
       </c>
       <c r="G43" t="n">
-        <v>65349.4</v>
+        <v>61517.4</v>
       </c>
       <c r="H43" t="n">
-        <v>65537.5</v>
+        <v>61784.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>65393.5</v>
+        <v>61948.5</v>
       </c>
       <c r="B44" t="n">
-        <v>65730</v>
+        <v>62239.5</v>
       </c>
       <c r="C44" t="n">
-        <v>65393.5</v>
+        <v>61941.5</v>
       </c>
       <c r="D44" t="n">
-        <v>65611</v>
+        <v>62089.5</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45397.0625</v>
+        <v>45400.13541666666</v>
       </c>
       <c r="F44" t="n">
-        <v>3040</v>
+        <v>8742</v>
       </c>
       <c r="G44" t="n">
-        <v>65462.5</v>
+        <v>61545.4</v>
       </c>
       <c r="H44" t="n">
-        <v>65489.5</v>
+        <v>61839.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>65304</v>
+        <v>62055</v>
       </c>
       <c r="B45" t="n">
-        <v>65395</v>
+        <v>62257</v>
       </c>
       <c r="C45" t="n">
-        <v>65088.5</v>
+        <v>61867.5</v>
       </c>
       <c r="D45" t="n">
-        <v>65395</v>
+        <v>61966.5</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45397.07291666666</v>
+        <v>45400.14583333334</v>
       </c>
       <c r="F45" t="n">
-        <v>5818</v>
+        <v>10074</v>
       </c>
       <c r="G45" t="n">
-        <v>65483.7</v>
+        <v>61572.2</v>
       </c>
       <c r="H45" t="n">
-        <v>65427.7</v>
+        <v>61911.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>65162.5</v>
+        <v>62003.5</v>
       </c>
       <c r="B46" t="n">
-        <v>65388</v>
+        <v>62111.5</v>
       </c>
       <c r="C46" t="n">
-        <v>65160.5</v>
+        <v>61963.5</v>
       </c>
       <c r="D46" t="n">
-        <v>65304</v>
+        <v>62043</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45397.08333333334</v>
+        <v>45400.15625</v>
       </c>
       <c r="F46" t="n">
-        <v>3816</v>
+        <v>3183</v>
       </c>
       <c r="G46" t="n">
-        <v>65472.9</v>
+        <v>61587.1</v>
       </c>
       <c r="H46" t="n">
-        <v>65339.3</v>
+        <v>61942</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>65242.5</v>
+        <v>61948.5</v>
       </c>
       <c r="B47" t="n">
-        <v>65331.5</v>
+        <v>62102.5</v>
       </c>
       <c r="C47" t="n">
-        <v>65125</v>
+        <v>61938</v>
       </c>
       <c r="D47" t="n">
-        <v>65162.5</v>
+        <v>62031.5</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45397.09375</v>
+        <v>45400.16666666666</v>
       </c>
       <c r="F47" t="n">
-        <v>2631</v>
+        <v>4917</v>
       </c>
       <c r="G47" t="n">
-        <v>65479.2</v>
+        <v>61604.5</v>
       </c>
       <c r="H47" t="n">
-        <v>65307</v>
+        <v>61944.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>65100.5</v>
+        <v>62067.5</v>
       </c>
       <c r="B48" t="n">
-        <v>65296</v>
+        <v>62080.5</v>
       </c>
       <c r="C48" t="n">
-        <v>64951</v>
+        <v>61827</v>
       </c>
       <c r="D48" t="n">
-        <v>65243</v>
+        <v>61948.5</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45397.10416666666</v>
+        <v>45400.17708333334</v>
       </c>
       <c r="F48" t="n">
-        <v>4238</v>
+        <v>10392</v>
       </c>
       <c r="G48" t="n">
-        <v>65462</v>
+        <v>61643</v>
       </c>
       <c r="H48" t="n">
-        <v>65238.2</v>
+        <v>61985.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>65148.5</v>
+        <v>61806.5</v>
       </c>
       <c r="B49" t="n">
-        <v>65238</v>
+        <v>62092.5</v>
       </c>
       <c r="C49" t="n">
-        <v>65007.5</v>
+        <v>61756</v>
       </c>
       <c r="D49" t="n">
-        <v>65056.5</v>
+        <v>62051</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45397.11458333334</v>
+        <v>45400.1875</v>
       </c>
       <c r="F49" t="n">
-        <v>2100</v>
+        <v>11252</v>
       </c>
       <c r="G49" t="n">
-        <v>65447.6</v>
+        <v>61666.3</v>
       </c>
       <c r="H49" t="n">
-        <v>65208.3</v>
+        <v>61925.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>65226</v>
+        <v>61663</v>
       </c>
       <c r="B50" t="n">
-        <v>65337.5</v>
+        <v>61800.5</v>
       </c>
       <c r="C50" t="n">
-        <v>65044.5</v>
+        <v>61569</v>
       </c>
       <c r="D50" t="n">
-        <v>65136</v>
+        <v>61800</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45397.125</v>
+        <v>45400.19791666666</v>
       </c>
       <c r="F50" t="n">
-        <v>3853</v>
+        <v>10588</v>
       </c>
       <c r="G50" t="n">
-        <v>65426</v>
+        <v>61684.8</v>
       </c>
       <c r="H50" t="n">
-        <v>65214.2</v>
+        <v>61838.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65250</v>
+        <v>61620.5</v>
       </c>
       <c r="B51" t="n">
-        <v>65333.5</v>
+        <v>61757.5</v>
       </c>
       <c r="C51" t="n">
-        <v>65185</v>
+        <v>61620.5</v>
       </c>
       <c r="D51" t="n">
-        <v>65201</v>
+        <v>61665.5</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45397.13541666666</v>
+        <v>45400.20833333334</v>
       </c>
       <c r="F51" t="n">
-        <v>2260</v>
+        <v>3152</v>
       </c>
       <c r="G51" t="n">
-        <v>65390.7</v>
+        <v>61709.2</v>
       </c>
       <c r="H51" t="n">
-        <v>65226.1</v>
+        <v>61765.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>65346</v>
+        <v>61725.5</v>
       </c>
       <c r="B52" t="n">
-        <v>65354</v>
+        <v>61741</v>
       </c>
       <c r="C52" t="n">
-        <v>65199</v>
+        <v>61621.5</v>
       </c>
       <c r="D52" t="n">
-        <v>65249</v>
+        <v>61621.5</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45397.14583333334</v>
+        <v>45400.21875</v>
       </c>
       <c r="F52" t="n">
-        <v>2514</v>
+        <v>2055</v>
       </c>
       <c r="G52" t="n">
-        <v>65368.3</v>
+        <v>61734.8</v>
       </c>
       <c r="H52" t="n">
-        <v>65266.1</v>
+        <v>61752.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>65168.5</v>
+        <v>61377.5</v>
       </c>
       <c r="B53" t="n">
-        <v>65338</v>
+        <v>61836</v>
       </c>
       <c r="C53" t="n">
-        <v>65121.5</v>
+        <v>61254</v>
       </c>
       <c r="D53" t="n">
-        <v>65337</v>
+        <v>61727</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45397.15625</v>
+        <v>45400.22916666666</v>
       </c>
       <c r="F53" t="n">
-        <v>2296</v>
+        <v>17005</v>
       </c>
       <c r="G53" t="n">
-        <v>65333.6</v>
+        <v>61741.6</v>
       </c>
       <c r="H53" t="n">
-        <v>65233.6</v>
+        <v>61627.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>64813.5</v>
+        <v>61093</v>
       </c>
       <c r="B54" t="n">
-        <v>65197.5</v>
+        <v>61450</v>
       </c>
       <c r="C54" t="n">
-        <v>64733.5</v>
+        <v>60989.5</v>
       </c>
       <c r="D54" t="n">
-        <v>65151.5</v>
+        <v>61373</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45397.16666666666</v>
+        <v>45400.23958333334</v>
       </c>
       <c r="F54" t="n">
-        <v>8980</v>
+        <v>9668</v>
       </c>
       <c r="G54" t="n">
-        <v>65287.9</v>
+        <v>61720.2</v>
       </c>
       <c r="H54" t="n">
-        <v>65093.5</v>
+        <v>61449.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>64968.5</v>
+        <v>61241</v>
       </c>
       <c r="B55" t="n">
-        <v>64968.5</v>
+        <v>61308</v>
       </c>
       <c r="C55" t="n">
-        <v>64700.5</v>
+        <v>61018</v>
       </c>
       <c r="D55" t="n">
-        <v>64813.5</v>
+        <v>61084</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45397.17708333334</v>
+        <v>45400.25</v>
       </c>
       <c r="F55" t="n">
-        <v>3656</v>
+        <v>9794</v>
       </c>
       <c r="G55" t="n">
-        <v>65243.3</v>
+        <v>61702.6</v>
       </c>
       <c r="H55" t="n">
-        <v>65051.9</v>
+        <v>61379.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>64927</v>
+        <v>61169.5</v>
       </c>
       <c r="B56" t="n">
-        <v>65017</v>
+        <v>61297</v>
       </c>
       <c r="C56" t="n">
-        <v>64802</v>
+        <v>61006</v>
       </c>
       <c r="D56" t="n">
-        <v>64968.5</v>
+        <v>61243</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45397.1875</v>
+        <v>45400.26041666666</v>
       </c>
       <c r="F56" t="n">
-        <v>3261</v>
+        <v>5365</v>
       </c>
       <c r="G56" t="n">
-        <v>65203.9</v>
+        <v>61680.6</v>
       </c>
       <c r="H56" t="n">
-        <v>65010.2</v>
+        <v>61309.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>64924.5</v>
+        <v>60922</v>
       </c>
       <c r="B57" t="n">
-        <v>64961</v>
+        <v>61188.5</v>
       </c>
       <c r="C57" t="n">
-        <v>64851</v>
+        <v>60806.5</v>
       </c>
       <c r="D57" t="n">
-        <v>64924</v>
+        <v>61173</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45397.19791666666</v>
+        <v>45400.27083333334</v>
       </c>
       <c r="F57" t="n">
-        <v>1560</v>
+        <v>13777</v>
       </c>
       <c r="G57" t="n">
-        <v>65171.5</v>
+        <v>61649.6</v>
       </c>
       <c r="H57" t="n">
-        <v>64981.7</v>
+        <v>61180.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>64978</v>
+        <v>61150.5</v>
       </c>
       <c r="B58" t="n">
-        <v>65090.5</v>
+        <v>61151</v>
       </c>
       <c r="C58" t="n">
-        <v>64930</v>
+        <v>60914.5</v>
       </c>
       <c r="D58" t="n">
-        <v>64960</v>
+        <v>60914.5</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45397.20833333334</v>
+        <v>45400.28125</v>
       </c>
       <c r="F58" t="n">
-        <v>3272</v>
+        <v>14742</v>
       </c>
       <c r="G58" t="n">
-        <v>65130.2</v>
+        <v>61623.8</v>
       </c>
       <c r="H58" t="n">
-        <v>64980.4</v>
+        <v>61170.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>65133</v>
+        <v>61242.5</v>
       </c>
       <c r="B59" t="n">
-        <v>65224</v>
+        <v>61324.5</v>
       </c>
       <c r="C59" t="n">
-        <v>64949.5</v>
+        <v>61096</v>
       </c>
       <c r="D59" t="n">
-        <v>64979</v>
+        <v>61170</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45397.21875</v>
+        <v>45400.29166666666</v>
       </c>
       <c r="F59" t="n">
-        <v>4453</v>
+        <v>12858</v>
       </c>
       <c r="G59" t="n">
-        <v>65112.9</v>
+        <v>61598.6</v>
       </c>
       <c r="H59" t="n">
-        <v>65031.3</v>
+        <v>61194.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>65276.5</v>
+        <v>61208.5</v>
       </c>
       <c r="B60" t="n">
-        <v>65411</v>
+        <v>61372.5</v>
       </c>
       <c r="C60" t="n">
-        <v>65110.5</v>
+        <v>61173</v>
       </c>
       <c r="D60" t="n">
-        <v>65114</v>
+        <v>61260.5</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45397.22916666666</v>
+        <v>45400.30208333334</v>
       </c>
       <c r="F60" t="n">
-        <v>3698</v>
+        <v>6378</v>
       </c>
       <c r="G60" t="n">
-        <v>65111</v>
+        <v>61582.4</v>
       </c>
       <c r="H60" t="n">
-        <v>65113</v>
+        <v>61199.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65487</v>
+        <v>61065</v>
       </c>
       <c r="B61" t="n">
-        <v>65536.5</v>
+        <v>61239.5</v>
       </c>
       <c r="C61" t="n">
-        <v>65253</v>
+        <v>60944.5</v>
       </c>
       <c r="D61" t="n">
-        <v>65276.5</v>
+        <v>61201.5</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45397.23958333334</v>
+        <v>45400.3125</v>
       </c>
       <c r="F61" t="n">
-        <v>6238</v>
+        <v>16384</v>
       </c>
       <c r="G61" t="n">
-        <v>65132.7</v>
+        <v>61554.2</v>
       </c>
       <c r="H61" t="n">
-        <v>65237.7</v>
+        <v>61154.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>65640.5</v>
+        <v>61187</v>
       </c>
       <c r="B62" t="n">
-        <v>65718</v>
+        <v>61326.5</v>
       </c>
       <c r="C62" t="n">
-        <v>65383</v>
+        <v>61084.5</v>
       </c>
       <c r="D62" t="n">
-        <v>65484</v>
+        <v>61084.5</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45397.25</v>
+        <v>45400.32291666666</v>
       </c>
       <c r="F62" t="n">
-        <v>8395</v>
+        <v>5679</v>
       </c>
       <c r="G62" t="n">
-        <v>65159.2</v>
+        <v>61529.3</v>
       </c>
       <c r="H62" t="n">
-        <v>65372</v>
+        <v>61165.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>66347</v>
+        <v>60982</v>
       </c>
       <c r="B63" t="n">
-        <v>66400</v>
+        <v>61297</v>
       </c>
       <c r="C63" t="n">
-        <v>65613</v>
+        <v>60889</v>
       </c>
       <c r="D63" t="n">
-        <v>65660.5</v>
+        <v>61191.5</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45397.26041666666</v>
+        <v>45400.33333333334</v>
       </c>
       <c r="F63" t="n">
-        <v>22161</v>
+        <v>6986</v>
       </c>
       <c r="G63" t="n">
-        <v>65242.3</v>
+        <v>61473.8</v>
       </c>
       <c r="H63" t="n">
-        <v>65697</v>
+        <v>61104.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>66336</v>
+        <v>61134.5</v>
       </c>
       <c r="B64" t="n">
-        <v>66483.5</v>
+        <v>61134.5</v>
       </c>
       <c r="C64" t="n">
-        <v>66136</v>
+        <v>60862.5</v>
       </c>
       <c r="D64" t="n">
-        <v>66341</v>
+        <v>60944</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45397.27083333334</v>
+        <v>45400.34375</v>
       </c>
       <c r="F64" t="n">
-        <v>17988</v>
+        <v>12334</v>
       </c>
       <c r="G64" t="n">
-        <v>65321.5</v>
+        <v>61433.2</v>
       </c>
       <c r="H64" t="n">
-        <v>65910</v>
+        <v>61114.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>66480</v>
+        <v>61424.5</v>
       </c>
       <c r="B65" t="n">
-        <v>66567</v>
+        <v>61571</v>
       </c>
       <c r="C65" t="n">
-        <v>66092.5</v>
+        <v>61162.5</v>
       </c>
       <c r="D65" t="n">
-        <v>66300</v>
+        <v>61162.5</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45397.28125</v>
+        <v>45400.35416666666</v>
       </c>
       <c r="F65" t="n">
-        <v>13407</v>
+        <v>33156</v>
       </c>
       <c r="G65" t="n">
-        <v>65405.1</v>
+        <v>61401.6</v>
       </c>
       <c r="H65" t="n">
-        <v>66100</v>
+        <v>61217.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>66313</v>
+        <v>61352</v>
       </c>
       <c r="B66" t="n">
-        <v>66588</v>
+        <v>61498.5</v>
       </c>
       <c r="C66" t="n">
-        <v>66218</v>
+        <v>61285.5</v>
       </c>
       <c r="D66" t="n">
-        <v>66467.5</v>
+        <v>61450</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45397.29166666666</v>
+        <v>45400.36458333334</v>
       </c>
       <c r="F66" t="n">
-        <v>7547</v>
+        <v>6324</v>
       </c>
       <c r="G66" t="n">
-        <v>65475.9</v>
+        <v>61369</v>
       </c>
       <c r="H66" t="n">
-        <v>66171</v>
+        <v>61262.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66467</v>
+        <v>61568</v>
       </c>
       <c r="B67" t="n">
-        <v>66533.5</v>
+        <v>61726</v>
       </c>
       <c r="C67" t="n">
-        <v>66235</v>
+        <v>61332</v>
       </c>
       <c r="D67" t="n">
-        <v>66312.5</v>
+        <v>61356.5</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45397.30208333334</v>
+        <v>45400.375</v>
       </c>
       <c r="F67" t="n">
-        <v>5547</v>
+        <v>9403</v>
       </c>
       <c r="G67" t="n">
-        <v>65550.7</v>
+        <v>61350</v>
       </c>
       <c r="H67" t="n">
-        <v>66269.7</v>
+        <v>61364.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>66323.5</v>
+        <v>61486.5</v>
       </c>
       <c r="B68" t="n">
-        <v>66500</v>
+        <v>61592.5</v>
       </c>
       <c r="C68" t="n">
-        <v>66315</v>
+        <v>61453.5</v>
       </c>
       <c r="D68" t="n">
-        <v>66480.5</v>
+        <v>61554.5</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45397.3125</v>
+        <v>45400.38541666666</v>
       </c>
       <c r="F68" t="n">
-        <v>4881</v>
+        <v>4289</v>
       </c>
       <c r="G68" t="n">
-        <v>65627.7</v>
+        <v>61321</v>
       </c>
       <c r="H68" t="n">
-        <v>66287.60000000001</v>
+        <v>61405</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>66274</v>
+        <v>61413</v>
       </c>
       <c r="B69" t="n">
-        <v>66414</v>
+        <v>61625</v>
       </c>
       <c r="C69" t="n">
-        <v>66168.5</v>
+        <v>61369</v>
       </c>
       <c r="D69" t="n">
-        <v>66321.5</v>
+        <v>61484</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45397.32291666666</v>
+        <v>45400.39583333334</v>
       </c>
       <c r="F69" t="n">
-        <v>6692</v>
+        <v>3670</v>
       </c>
       <c r="G69" t="n">
-        <v>65725</v>
+        <v>61301.3</v>
       </c>
       <c r="H69" t="n">
-        <v>66283.10000000001</v>
+        <v>61407.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>66085.5</v>
+        <v>61643</v>
       </c>
       <c r="B70" t="n">
-        <v>66455.5</v>
+        <v>61652.5</v>
       </c>
       <c r="C70" t="n">
-        <v>66070</v>
+        <v>61397</v>
       </c>
       <c r="D70" t="n">
-        <v>66264.5</v>
+        <v>61406</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45397.33333333334</v>
+        <v>45400.40625</v>
       </c>
       <c r="F70" t="n">
-        <v>10301</v>
+        <v>2997</v>
       </c>
       <c r="G70" t="n">
-        <v>65799.5</v>
+        <v>61300.3</v>
       </c>
       <c r="H70" t="n">
-        <v>66217.2</v>
+        <v>61486.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>66193</v>
+        <v>61561.5</v>
       </c>
       <c r="B71" t="n">
-        <v>66296</v>
+        <v>61710</v>
       </c>
       <c r="C71" t="n">
-        <v>66071</v>
+        <v>61520.5</v>
       </c>
       <c r="D71" t="n">
-        <v>66092.5</v>
+        <v>61632</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45397.34375</v>
+        <v>45400.41666666666</v>
       </c>
       <c r="F71" t="n">
-        <v>6599</v>
+        <v>3776</v>
       </c>
       <c r="G71" t="n">
-        <v>65883.89999999999</v>
+        <v>61297.4</v>
       </c>
       <c r="H71" t="n">
-        <v>66209.10000000001</v>
+        <v>61511.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>66364</v>
+        <v>61663.5</v>
       </c>
       <c r="B72" t="n">
-        <v>66457</v>
+        <v>61688.5</v>
       </c>
       <c r="C72" t="n">
-        <v>66184.5</v>
+        <v>61508</v>
       </c>
       <c r="D72" t="n">
-        <v>66196.5</v>
+        <v>61515</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45397.35416666666</v>
+        <v>45400.42708333334</v>
       </c>
       <c r="F72" t="n">
-        <v>4315</v>
+        <v>3978</v>
       </c>
       <c r="G72" t="n">
-        <v>65979.89999999999</v>
+        <v>61294.2</v>
       </c>
       <c r="H72" t="n">
-        <v>66260.8</v>
+        <v>61562</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>66290</v>
+        <v>61618.5</v>
       </c>
       <c r="B73" t="n">
-        <v>66388.5</v>
+        <v>61787</v>
       </c>
       <c r="C73" t="n">
-        <v>66169</v>
+        <v>61600.5</v>
       </c>
       <c r="D73" t="n">
-        <v>66385.5</v>
+        <v>61664.5</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45397.36458333334</v>
+        <v>45400.4375</v>
       </c>
       <c r="F73" t="n">
-        <v>2645</v>
+        <v>10077</v>
       </c>
       <c r="G73" t="n">
-        <v>66067.3</v>
+        <v>61306.3</v>
       </c>
       <c r="H73" t="n">
-        <v>66270.5</v>
+        <v>61580.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>66258</v>
+        <v>61832.5</v>
       </c>
       <c r="B74" t="n">
-        <v>66306.5</v>
+        <v>61935.5</v>
       </c>
       <c r="C74" t="n">
-        <v>66125</v>
+        <v>61612</v>
       </c>
       <c r="D74" t="n">
-        <v>66292.5</v>
+        <v>61614.5</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45397.375</v>
+        <v>45400.44791666666</v>
       </c>
       <c r="F74" t="n">
-        <v>4544</v>
+        <v>12265</v>
       </c>
       <c r="G74" t="n">
-        <v>66142.3</v>
+        <v>61343.3</v>
       </c>
       <c r="H74" t="n">
-        <v>66266.3</v>
+        <v>61664.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>66649.5</v>
+        <v>62416</v>
       </c>
       <c r="B75" t="n">
-        <v>66877</v>
+        <v>62482</v>
       </c>
       <c r="C75" t="n">
-        <v>66244</v>
+        <v>61832.5</v>
       </c>
       <c r="D75" t="n">
-        <v>66248.5</v>
+        <v>61832.5</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45397.38541666666</v>
+        <v>45400.45833333334</v>
       </c>
       <c r="F75" t="n">
-        <v>18745</v>
+        <v>44027</v>
       </c>
       <c r="G75" t="n">
-        <v>66233.89999999999</v>
+        <v>61402</v>
       </c>
       <c r="H75" t="n">
-        <v>66394.10000000001</v>
+        <v>61915.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>66715.5</v>
+        <v>62880.5</v>
       </c>
       <c r="B76" t="n">
-        <v>66768.5</v>
+        <v>63044.5</v>
       </c>
       <c r="C76" t="n">
-        <v>66518</v>
+        <v>62416</v>
       </c>
       <c r="D76" t="n">
-        <v>66644.5</v>
+        <v>62417</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45397.39583333334</v>
+        <v>45400.46875</v>
       </c>
       <c r="F76" t="n">
-        <v>12163</v>
+        <v>48037</v>
       </c>
       <c r="G76" t="n">
-        <v>66315.8</v>
+        <v>61487.6</v>
       </c>
       <c r="H76" t="n">
-        <v>66501.2</v>
+        <v>62236.9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>66597</v>
+        <v>62640.5</v>
       </c>
       <c r="B77" t="n">
-        <v>66789.5</v>
+        <v>63091.5</v>
       </c>
       <c r="C77" t="n">
-        <v>66579</v>
+        <v>62627.5</v>
       </c>
       <c r="D77" t="n">
-        <v>66724.5</v>
+        <v>62927.5</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45397.40625</v>
+        <v>45400.47916666666</v>
       </c>
       <c r="F77" t="n">
-        <v>7304</v>
+        <v>29947</v>
       </c>
       <c r="G77" t="n">
-        <v>66379.5</v>
+        <v>61573.5</v>
       </c>
       <c r="H77" t="n">
-        <v>66533.10000000001</v>
+        <v>62371.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>66552</v>
+        <v>62600.5</v>
       </c>
       <c r="B78" t="n">
-        <v>66659.5</v>
+        <v>62775.5</v>
       </c>
       <c r="C78" t="n">
-        <v>66463</v>
+        <v>62561</v>
       </c>
       <c r="D78" t="n">
-        <v>66597</v>
+        <v>62641</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45397.41666666666</v>
+        <v>45400.48958333334</v>
       </c>
       <c r="F78" t="n">
-        <v>6655</v>
+        <v>25354</v>
       </c>
       <c r="G78" t="n">
-        <v>66393.2</v>
+        <v>61646</v>
       </c>
       <c r="H78" t="n">
-        <v>66539.39999999999</v>
+        <v>62447.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>66488</v>
+        <v>62459</v>
       </c>
       <c r="B79" t="n">
-        <v>66583</v>
+        <v>62731</v>
       </c>
       <c r="C79" t="n">
-        <v>66429.5</v>
+        <v>62348</v>
       </c>
       <c r="D79" t="n">
-        <v>66551</v>
+        <v>62605</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45397.42708333334</v>
+        <v>45400.5</v>
       </c>
       <c r="F79" t="n">
-        <v>6566</v>
+        <v>8207</v>
       </c>
       <c r="G79" t="n">
-        <v>66403.3</v>
+        <v>61706.8</v>
       </c>
       <c r="H79" t="n">
-        <v>66522.3</v>
+        <v>62451.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>66516.5</v>
+        <v>62137.5</v>
       </c>
       <c r="B80" t="n">
-        <v>66536</v>
+        <v>62484.5</v>
       </c>
       <c r="C80" t="n">
-        <v>66413</v>
+        <v>62125.5</v>
       </c>
       <c r="D80" t="n">
-        <v>66482</v>
+        <v>62455</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45397.4375</v>
+        <v>45400.51041666666</v>
       </c>
       <c r="F80" t="n">
-        <v>4094</v>
+        <v>6530</v>
       </c>
       <c r="G80" t="n">
-        <v>66405.8</v>
+        <v>61753.3</v>
       </c>
       <c r="H80" t="n">
-        <v>66520.39999999999</v>
+        <v>62346.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>66484.5</v>
+        <v>62276.5</v>
       </c>
       <c r="B81" t="n">
-        <v>66593.5</v>
+        <v>62276.5</v>
       </c>
       <c r="C81" t="n">
-        <v>66452.5</v>
+        <v>61613</v>
       </c>
       <c r="D81" t="n">
-        <v>66514</v>
+        <v>62136</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45397.44791666666</v>
+        <v>45400.52083333334</v>
       </c>
       <c r="F81" t="n">
-        <v>5543</v>
+        <v>17376</v>
       </c>
       <c r="G81" t="n">
-        <v>66417.2</v>
+        <v>61813.8</v>
       </c>
       <c r="H81" t="n">
-        <v>66508.39999999999</v>
+        <v>62323.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>66243</v>
+        <v>62252.5</v>
       </c>
       <c r="B82" t="n">
-        <v>66730</v>
+        <v>62337.5</v>
       </c>
       <c r="C82" t="n">
-        <v>66196.5</v>
+        <v>62035.5</v>
       </c>
       <c r="D82" t="n">
-        <v>66485</v>
+        <v>62260</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45397.45833333334</v>
+        <v>45400.53125</v>
       </c>
       <c r="F82" t="n">
-        <v>15299</v>
+        <v>6602</v>
       </c>
       <c r="G82" t="n">
-        <v>66402.3</v>
+        <v>61867.1</v>
       </c>
       <c r="H82" t="n">
-        <v>66419.89999999999</v>
+        <v>62299.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>66209</v>
+        <v>62262</v>
       </c>
       <c r="B83" t="n">
-        <v>66326</v>
+        <v>62394.5</v>
       </c>
       <c r="C83" t="n">
-        <v>66124.5</v>
+        <v>62113.5</v>
       </c>
       <c r="D83" t="n">
-        <v>66267.5</v>
+        <v>62258</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45397.46875</v>
+        <v>45400.54166666666</v>
       </c>
       <c r="F83" t="n">
-        <v>18552</v>
+        <v>7142</v>
       </c>
       <c r="G83" t="n">
-        <v>66394.60000000001</v>
+        <v>61931.1</v>
       </c>
       <c r="H83" t="n">
-        <v>66349.60000000001</v>
+        <v>62287.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>66027</v>
+        <v>62441</v>
       </c>
       <c r="B84" t="n">
-        <v>66231</v>
+        <v>62475.5</v>
       </c>
       <c r="C84" t="n">
-        <v>65840.5</v>
+        <v>62100</v>
       </c>
       <c r="D84" t="n">
-        <v>66220</v>
+        <v>62241</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45397.47916666666</v>
+        <v>45400.55208333334</v>
       </c>
       <c r="F84" t="n">
-        <v>33439</v>
+        <v>7772</v>
       </c>
       <c r="G84" t="n">
-        <v>66378.2</v>
+        <v>61996.4</v>
       </c>
       <c r="H84" t="n">
-        <v>66242.10000000001</v>
+        <v>62338.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>65885</v>
+        <v>62395.5</v>
       </c>
       <c r="B85" t="n">
-        <v>66128</v>
+        <v>62586.5</v>
       </c>
       <c r="C85" t="n">
-        <v>65838.5</v>
+        <v>61898</v>
       </c>
       <c r="D85" t="n">
-        <v>66012</v>
+        <v>62446.5</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45397.48958333334</v>
+        <v>45400.5625</v>
       </c>
       <c r="F85" t="n">
-        <v>36420</v>
+        <v>17335</v>
       </c>
       <c r="G85" t="n">
-        <v>66364.8</v>
+        <v>62045</v>
       </c>
       <c r="H85" t="n">
-        <v>66123.10000000001</v>
+        <v>62357.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>66151.5</v>
+        <v>62808.5</v>
       </c>
       <c r="B86" t="n">
-        <v>66160.5</v>
+        <v>62846</v>
       </c>
       <c r="C86" t="n">
-        <v>65818.5</v>
+        <v>62315</v>
       </c>
       <c r="D86" t="n">
-        <v>65883</v>
+        <v>62381</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45397.5</v>
+        <v>45400.57291666666</v>
       </c>
       <c r="F86" t="n">
-        <v>9270</v>
+        <v>14604</v>
       </c>
       <c r="G86" t="n">
-        <v>66362</v>
+        <v>62117.8</v>
       </c>
       <c r="H86" t="n">
-        <v>66132.5</v>
+        <v>62507.8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>66039</v>
+        <v>63474.5</v>
       </c>
       <c r="B87" t="n">
-        <v>66189.5</v>
+        <v>63485.5</v>
       </c>
       <c r="C87" t="n">
-        <v>65902</v>
+        <v>62580</v>
       </c>
       <c r="D87" t="n">
-        <v>66151.5</v>
+        <v>62807.5</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45397.51041666666</v>
+        <v>45400.58333333334</v>
       </c>
       <c r="F87" t="n">
-        <v>5903</v>
+        <v>28178</v>
       </c>
       <c r="G87" t="n">
-        <v>66340.39999999999</v>
+        <v>62213.2</v>
       </c>
       <c r="H87" t="n">
-        <v>66101.39999999999</v>
+        <v>62830</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>66123</v>
+        <v>63690.5</v>
       </c>
       <c r="B88" t="n">
-        <v>66271.5</v>
+        <v>63861.5</v>
       </c>
       <c r="C88" t="n">
-        <v>65907</v>
+        <v>63332.5</v>
       </c>
       <c r="D88" t="n">
-        <v>66000</v>
+        <v>63475.5</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45397.52083333334</v>
+        <v>45400.59375</v>
       </c>
       <c r="F88" t="n">
-        <v>7357</v>
+        <v>22462</v>
       </c>
       <c r="G88" t="n">
-        <v>66329.2</v>
+        <v>62323.4</v>
       </c>
       <c r="H88" t="n">
-        <v>66108.60000000001</v>
+        <v>63116.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>66046.5</v>
+        <v>63727.5</v>
       </c>
       <c r="B89" t="n">
-        <v>66186</v>
+        <v>63994</v>
       </c>
       <c r="C89" t="n">
-        <v>66013</v>
+        <v>63482.5</v>
       </c>
       <c r="D89" t="n">
-        <v>66120</v>
+        <v>63713</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45397.53125</v>
+        <v>45400.60416666666</v>
       </c>
       <c r="F89" t="n">
-        <v>3573</v>
+        <v>14964</v>
       </c>
       <c r="G89" t="n">
-        <v>66315.10000000001</v>
+        <v>62439.1</v>
       </c>
       <c r="H89" t="n">
-        <v>66087.89999999999</v>
+        <v>63320.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>66174.5</v>
+        <v>63831</v>
       </c>
       <c r="B90" t="n">
-        <v>66246</v>
+        <v>63849.5</v>
       </c>
       <c r="C90" t="n">
-        <v>65919.5</v>
+        <v>63402.5</v>
       </c>
       <c r="D90" t="n">
-        <v>66050</v>
+        <v>63732</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45397.54166666666</v>
+        <v>45400.61458333334</v>
       </c>
       <c r="F90" t="n">
-        <v>6523</v>
+        <v>10544</v>
       </c>
       <c r="G90" t="n">
-        <v>66283.5</v>
+        <v>62548.5</v>
       </c>
       <c r="H90" t="n">
-        <v>66116.8</v>
+        <v>63490.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>66171</v>
+        <v>63910</v>
       </c>
       <c r="B91" t="n">
-        <v>66284</v>
+        <v>64144</v>
       </c>
       <c r="C91" t="n">
-        <v>66030.5</v>
+        <v>63697.5</v>
       </c>
       <c r="D91" t="n">
-        <v>66189.5</v>
+        <v>63850</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45397.55208333334</v>
+        <v>45400.625</v>
       </c>
       <c r="F91" t="n">
-        <v>5390</v>
+        <v>18403</v>
       </c>
       <c r="G91" t="n">
-        <v>66247.2</v>
+        <v>62665.9</v>
       </c>
       <c r="H91" t="n">
-        <v>66134.8</v>
+        <v>63630.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>66244</v>
+        <v>63593</v>
       </c>
       <c r="B92" t="n">
-        <v>66301.5</v>
+        <v>63978.5</v>
       </c>
       <c r="C92" t="n">
-        <v>65840</v>
+        <v>63567</v>
       </c>
       <c r="D92" t="n">
-        <v>66225</v>
+        <v>63903</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45397.5625</v>
+        <v>45400.63541666666</v>
       </c>
       <c r="F92" t="n">
-        <v>11776</v>
+        <v>10895</v>
       </c>
       <c r="G92" t="n">
-        <v>66223.60000000001</v>
+        <v>62762.4</v>
       </c>
       <c r="H92" t="n">
-        <v>66171.2</v>
+        <v>63617.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>65883</v>
+        <v>63716.5</v>
       </c>
       <c r="B93" t="n">
-        <v>66421.5</v>
+        <v>63801</v>
       </c>
       <c r="C93" t="n">
-        <v>65688.5</v>
+        <v>63537.5</v>
       </c>
       <c r="D93" t="n">
-        <v>66237</v>
+        <v>63595.5</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45397.57291666666</v>
+        <v>45400.64583333334</v>
       </c>
       <c r="F93" t="n">
-        <v>17120</v>
+        <v>7809</v>
       </c>
       <c r="G93" t="n">
-        <v>66179</v>
+        <v>62867.3</v>
       </c>
       <c r="H93" t="n">
-        <v>66075.10000000001</v>
+        <v>63650.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>65214</v>
+        <v>63504</v>
       </c>
       <c r="B94" t="n">
-        <v>66002.5</v>
+        <v>63728</v>
       </c>
       <c r="C94" t="n">
-        <v>65186</v>
+        <v>63448</v>
       </c>
       <c r="D94" t="n">
-        <v>65886</v>
+        <v>63728</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45397.58333333334</v>
+        <v>45400.65625</v>
       </c>
       <c r="F94" t="n">
-        <v>19360</v>
+        <v>8378</v>
       </c>
       <c r="G94" t="n">
-        <v>66094.10000000001</v>
+        <v>62950.8</v>
       </c>
       <c r="H94" t="n">
-        <v>65788.10000000001</v>
+        <v>63601.9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>65379</v>
+        <v>63404</v>
       </c>
       <c r="B95" t="n">
-        <v>65584.5</v>
+        <v>63625.5</v>
       </c>
       <c r="C95" t="n">
-        <v>65172</v>
+        <v>63294.5</v>
       </c>
       <c r="D95" t="n">
-        <v>65230</v>
+        <v>63512</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45397.59375</v>
+        <v>45400.66666666666</v>
       </c>
       <c r="F95" t="n">
-        <v>12574</v>
+        <v>11619</v>
       </c>
       <c r="G95" t="n">
-        <v>66018.3</v>
+        <v>63000.2</v>
       </c>
       <c r="H95" t="n">
-        <v>65651.7</v>
+        <v>63535.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>64831.5</v>
+        <v>63817.5</v>
       </c>
       <c r="B96" t="n">
-        <v>65484.5</v>
+        <v>63879.5</v>
       </c>
       <c r="C96" t="n">
-        <v>64730</v>
+        <v>63316.5</v>
       </c>
       <c r="D96" t="n">
-        <v>65377.5</v>
+        <v>63394</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45397.60416666666</v>
+        <v>45400.67708333334</v>
       </c>
       <c r="F96" t="n">
-        <v>17885</v>
+        <v>12113</v>
       </c>
       <c r="G96" t="n">
-        <v>65908.10000000001</v>
+        <v>63047.1</v>
       </c>
       <c r="H96" t="n">
-        <v>65378.3</v>
+        <v>63629.8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>64254</v>
+        <v>63567</v>
       </c>
       <c r="B97" t="n">
-        <v>64933</v>
+        <v>63825.5</v>
       </c>
       <c r="C97" t="n">
-        <v>64197</v>
+        <v>63483</v>
       </c>
       <c r="D97" t="n">
-        <v>64849</v>
+        <v>63813</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45397.61458333334</v>
+        <v>45400.6875</v>
       </c>
       <c r="F97" t="n">
-        <v>33369</v>
+        <v>6944</v>
       </c>
       <c r="G97" t="n">
-        <v>65775.5</v>
+        <v>63093.4</v>
       </c>
       <c r="H97" t="n">
-        <v>65003.5</v>
+        <v>63608.8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>64511</v>
+        <v>63546.5</v>
       </c>
       <c r="B98" t="n">
-        <v>64532.5</v>
+        <v>63663</v>
       </c>
       <c r="C98" t="n">
-        <v>63834</v>
+        <v>63391</v>
       </c>
       <c r="D98" t="n">
-        <v>64273.5</v>
+        <v>63536</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45397.625</v>
+        <v>45400.69791666666</v>
       </c>
       <c r="F98" t="n">
-        <v>16711</v>
+        <v>9718</v>
       </c>
       <c r="G98" t="n">
-        <v>65662.3</v>
+        <v>63140.7</v>
       </c>
       <c r="H98" t="n">
-        <v>64839.4</v>
+        <v>63588.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>64662</v>
+        <v>63527.5</v>
       </c>
       <c r="B99" t="n">
-        <v>64791</v>
+        <v>63633</v>
       </c>
       <c r="C99" t="n">
-        <v>64346.5</v>
+        <v>63340.5</v>
       </c>
       <c r="D99" t="n">
-        <v>64491.5</v>
+        <v>63538</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45397.63541666666</v>
+        <v>45400.70833333334</v>
       </c>
       <c r="F99" t="n">
-        <v>12237</v>
+        <v>5702</v>
       </c>
       <c r="G99" t="n">
-        <v>65571.3</v>
+        <v>63194.2</v>
       </c>
       <c r="H99" t="n">
-        <v>64780.2</v>
+        <v>63567.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>64366.5</v>
+        <v>63408.5</v>
       </c>
       <c r="B100" t="n">
-        <v>64718</v>
+        <v>63576.5</v>
       </c>
       <c r="C100" t="n">
-        <v>64332</v>
+        <v>63243.5</v>
       </c>
       <c r="D100" t="n">
-        <v>64690.5</v>
+        <v>63525.5</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45397.64583333334</v>
+        <v>45400.71875</v>
       </c>
       <c r="F100" t="n">
-        <v>8063</v>
+        <v>10106</v>
       </c>
       <c r="G100" t="n">
-        <v>65470</v>
+        <v>63257.7</v>
       </c>
       <c r="H100" t="n">
-        <v>64642.3</v>
+        <v>63514.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>64594</v>
+        <v>63305.5</v>
       </c>
       <c r="B101" t="n">
-        <v>64701</v>
+        <v>63453</v>
       </c>
       <c r="C101" t="n">
-        <v>64340.5</v>
+        <v>63191</v>
       </c>
       <c r="D101" t="n">
-        <v>64375</v>
+        <v>63398.5</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45397.65625</v>
+        <v>45400.72916666666</v>
       </c>
       <c r="F101" t="n">
-        <v>6230</v>
+        <v>7648</v>
       </c>
       <c r="G101" t="n">
-        <v>65366.2</v>
+        <v>63309.2</v>
       </c>
       <c r="H101" t="n">
-        <v>64626.2</v>
+        <v>63445</v>
       </c>
     </row>
   </sheetData>

--- a/history_data.xlsx
+++ b/history_data.xlsx
@@ -481,2556 +481,2556 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60205.5</v>
+        <v>64400</v>
       </c>
       <c r="B2" t="n">
-        <v>60455</v>
+        <v>64838.5</v>
       </c>
       <c r="C2" t="n">
-        <v>59909</v>
+        <v>64386.5</v>
       </c>
       <c r="D2" t="n">
-        <v>60113</v>
+        <v>64774</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45399.69791666666</v>
+        <v>45408.59375</v>
       </c>
       <c r="F2" t="n">
-        <v>13795</v>
+        <v>15137</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>60386</v>
+        <v>64066.5</v>
       </c>
       <c r="B3" t="n">
-        <v>60589</v>
+        <v>64535</v>
       </c>
       <c r="C3" t="n">
-        <v>60131</v>
+        <v>63912.5</v>
       </c>
       <c r="D3" t="n">
-        <v>60199</v>
+        <v>64397</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45399.70833333334</v>
+        <v>45408.60416666666</v>
       </c>
       <c r="F3" t="n">
-        <v>12773</v>
+        <v>23637</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60779.5</v>
+        <v>63862</v>
       </c>
       <c r="B4" t="n">
-        <v>60825.5</v>
+        <v>64078</v>
       </c>
       <c r="C4" t="n">
-        <v>60400.5</v>
+        <v>63793</v>
       </c>
       <c r="D4" t="n">
-        <v>60400.5</v>
+        <v>64063.5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45399.71875</v>
+        <v>45408.61458333334</v>
       </c>
       <c r="F4" t="n">
-        <v>12084</v>
+        <v>12354</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60761</v>
+        <v>63727</v>
       </c>
       <c r="B5" t="n">
-        <v>60926</v>
+        <v>64040.5</v>
       </c>
       <c r="C5" t="n">
-        <v>60607</v>
+        <v>63537.5</v>
       </c>
       <c r="D5" t="n">
-        <v>60791</v>
+        <v>63862.5</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45399.72916666666</v>
+        <v>45408.625</v>
       </c>
       <c r="F5" t="n">
-        <v>10429</v>
+        <v>14014</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>61297.5</v>
+        <v>63439.5</v>
       </c>
       <c r="B6" t="n">
-        <v>61380.5</v>
+        <v>63809</v>
       </c>
       <c r="C6" t="n">
-        <v>60612</v>
+        <v>63439.5</v>
       </c>
       <c r="D6" t="n">
-        <v>60760</v>
+        <v>63737.5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45399.73958333334</v>
+        <v>45408.63541666666</v>
       </c>
       <c r="F6" t="n">
-        <v>19619</v>
+        <v>13816</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>60685.9</v>
+        <v>63899</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61686.5</v>
+        <v>63577</v>
       </c>
       <c r="B7" t="n">
-        <v>61810.5</v>
+        <v>63577</v>
       </c>
       <c r="C7" t="n">
-        <v>61185.5</v>
+        <v>63360.5</v>
       </c>
       <c r="D7" t="n">
-        <v>61308</v>
+        <v>63441</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45399.75</v>
+        <v>45408.64583333334</v>
       </c>
       <c r="F7" t="n">
-        <v>24386</v>
+        <v>9031</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>61019.4</v>
+        <v>63791.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61809</v>
+        <v>63510.5</v>
       </c>
       <c r="B8" t="n">
-        <v>61985</v>
+        <v>63609</v>
       </c>
       <c r="C8" t="n">
-        <v>61533.5</v>
+        <v>63477.5</v>
       </c>
       <c r="D8" t="n">
-        <v>61732</v>
+        <v>63576</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45399.76041666666</v>
+        <v>45408.65625</v>
       </c>
       <c r="F8" t="n">
-        <v>15246</v>
+        <v>11213</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>61282.6</v>
+        <v>63697.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>61845</v>
+        <v>63475</v>
       </c>
       <c r="B9" t="n">
-        <v>61884</v>
+        <v>63679</v>
       </c>
       <c r="C9" t="n">
-        <v>61449</v>
+        <v>63337.5</v>
       </c>
       <c r="D9" t="n">
-        <v>61816.5</v>
+        <v>63516.5</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45399.77083333334</v>
+        <v>45408.66666666666</v>
       </c>
       <c r="F9" t="n">
-        <v>15724</v>
+        <v>13388</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>61470.1</v>
+        <v>63623.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61461.5</v>
+        <v>63732.5</v>
       </c>
       <c r="B10" t="n">
-        <v>61849.5</v>
+        <v>63801</v>
       </c>
       <c r="C10" t="n">
-        <v>61400</v>
+        <v>63463.5</v>
       </c>
       <c r="D10" t="n">
-        <v>61849.5</v>
+        <v>63465.5</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45399.78125</v>
+        <v>45408.67708333334</v>
       </c>
       <c r="F10" t="n">
-        <v>19654</v>
+        <v>12259</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>61467.2</v>
+        <v>63659.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61168.5</v>
+        <v>63646</v>
       </c>
       <c r="B11" t="n">
-        <v>61482.5</v>
+        <v>63799</v>
       </c>
       <c r="C11" t="n">
-        <v>61060</v>
+        <v>63628</v>
       </c>
       <c r="D11" t="n">
-        <v>61452</v>
+        <v>63739</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45399.79166666666</v>
+        <v>45408.6875</v>
       </c>
       <c r="F11" t="n">
-        <v>12337</v>
+        <v>7832</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>61367.6</v>
+        <v>63655.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61017</v>
+        <v>63684</v>
       </c>
       <c r="B12" t="n">
-        <v>61291.5</v>
+        <v>63800</v>
       </c>
       <c r="C12" t="n">
-        <v>60911</v>
+        <v>63575</v>
       </c>
       <c r="D12" t="n">
-        <v>61158</v>
+        <v>63650.5</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45399.80208333334</v>
+        <v>45408.69791666666</v>
       </c>
       <c r="F12" t="n">
-        <v>8393</v>
+        <v>5675</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>61250.8</v>
+        <v>63664.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>60977.5</v>
+        <v>63748.5</v>
       </c>
       <c r="B13" t="n">
-        <v>61251.5</v>
+        <v>63754</v>
       </c>
       <c r="C13" t="n">
-        <v>60729</v>
+        <v>63577.5</v>
       </c>
       <c r="D13" t="n">
-        <v>61022.5</v>
+        <v>63697</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45399.8125</v>
+        <v>45408.70833333334</v>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>6741</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>61159.7</v>
+        <v>63692.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>61026.5</v>
+        <v>63841</v>
       </c>
       <c r="B14" t="n">
-        <v>61335.5</v>
+        <v>63896</v>
       </c>
       <c r="C14" t="n">
-        <v>60925</v>
+        <v>63665.5</v>
       </c>
       <c r="D14" t="n">
-        <v>60976.5</v>
+        <v>63747</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45399.82291666666</v>
+        <v>45408.71875</v>
       </c>
       <c r="F14" t="n">
-        <v>7036</v>
+        <v>7520</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>61115.3</v>
+        <v>63742.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>61039.5</v>
+        <v>63896.5</v>
       </c>
       <c r="B15" t="n">
-        <v>61237</v>
+        <v>64056.5</v>
       </c>
       <c r="C15" t="n">
-        <v>60925</v>
+        <v>63775</v>
       </c>
       <c r="D15" t="n">
-        <v>61052</v>
+        <v>63840</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45399.83333333334</v>
+        <v>45408.72916666666</v>
       </c>
       <c r="F15" t="n">
-        <v>4848</v>
+        <v>17868</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>61090</v>
+        <v>63793.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>61392.5</v>
+        <v>64016</v>
       </c>
       <c r="B16" t="n">
-        <v>61456.5</v>
+        <v>64136.5</v>
       </c>
       <c r="C16" t="n">
-        <v>61009</v>
+        <v>63930</v>
       </c>
       <c r="D16" t="n">
-        <v>61051.5</v>
+        <v>63930</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45399.84375</v>
+        <v>45408.73958333334</v>
       </c>
       <c r="F16" t="n">
-        <v>4899</v>
+        <v>11946</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>61190.8</v>
+        <v>63867.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>61161.5</v>
+        <v>64106</v>
       </c>
       <c r="B17" t="n">
-        <v>61473</v>
+        <v>64132</v>
       </c>
       <c r="C17" t="n">
-        <v>61151</v>
+        <v>63968.5</v>
       </c>
       <c r="D17" t="n">
-        <v>61373</v>
+        <v>64024</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45399.85416666666</v>
+        <v>45408.75</v>
       </c>
       <c r="F17" t="n">
-        <v>4241</v>
+        <v>6654</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>61181.1</v>
+        <v>63947.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>60853</v>
+        <v>64017.5</v>
       </c>
       <c r="B18" t="n">
-        <v>61260.5</v>
+        <v>64103</v>
       </c>
       <c r="C18" t="n">
-        <v>60783.5</v>
+        <v>63974.5</v>
       </c>
       <c r="D18" t="n">
-        <v>61171.5</v>
+        <v>64103</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45399.86458333334</v>
+        <v>45408.76041666666</v>
       </c>
       <c r="F18" t="n">
-        <v>7696</v>
+        <v>4279</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>61071.7</v>
+        <v>63970.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>61468</v>
+        <v>64015</v>
       </c>
       <c r="B19" t="n">
-        <v>61541</v>
+        <v>64181</v>
       </c>
       <c r="C19" t="n">
-        <v>60856.5</v>
+        <v>63962.5</v>
       </c>
       <c r="D19" t="n">
-        <v>60856.5</v>
+        <v>64023</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45399.875</v>
+        <v>45408.77083333334</v>
       </c>
       <c r="F19" t="n">
-        <v>7550</v>
+        <v>6082</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>61203.8</v>
+        <v>63985.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>61395.5</v>
+        <v>64079.5</v>
       </c>
       <c r="B20" t="n">
-        <v>61671</v>
+        <v>64106.5</v>
       </c>
       <c r="C20" t="n">
-        <v>61356.5</v>
+        <v>63958</v>
       </c>
       <c r="D20" t="n">
-        <v>61452</v>
+        <v>64043</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45399.88541666666</v>
+        <v>45408.78125</v>
       </c>
       <c r="F20" t="n">
-        <v>9083</v>
+        <v>3384</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>61267.7</v>
+        <v>64016.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>61136.5</v>
+        <v>63973.5</v>
       </c>
       <c r="B21" t="n">
-        <v>61542.5</v>
+        <v>64155</v>
       </c>
       <c r="C21" t="n">
-        <v>61035.5</v>
+        <v>63973.5</v>
       </c>
       <c r="D21" t="n">
-        <v>61396.5</v>
+        <v>64077</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45399.89583333334</v>
+        <v>45408.79166666666</v>
       </c>
       <c r="F21" t="n">
-        <v>4776</v>
+        <v>7309</v>
       </c>
       <c r="G21" t="n">
-        <v>61143.4</v>
+        <v>63840.7</v>
       </c>
       <c r="H21" t="n">
-        <v>61224</v>
+        <v>64002.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>61318.5</v>
+        <v>63938.5</v>
       </c>
       <c r="B22" t="n">
-        <v>61358.5</v>
+        <v>64018.5</v>
       </c>
       <c r="C22" t="n">
-        <v>61073.5</v>
+        <v>63882.5</v>
       </c>
       <c r="D22" t="n">
-        <v>61137.5</v>
+        <v>63963.5</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45399.90625</v>
+        <v>45408.80208333334</v>
       </c>
       <c r="F22" t="n">
-        <v>5340</v>
+        <v>15248</v>
       </c>
       <c r="G22" t="n">
-        <v>61199</v>
+        <v>63817.6</v>
       </c>
       <c r="H22" t="n">
-        <v>61255.5</v>
+        <v>63981.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>61279.5</v>
+        <v>63835</v>
       </c>
       <c r="B23" t="n">
-        <v>61368</v>
+        <v>63939.5</v>
       </c>
       <c r="C23" t="n">
-        <v>61171</v>
+        <v>63819.5</v>
       </c>
       <c r="D23" t="n">
-        <v>61368</v>
+        <v>63939.5</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45399.91666666666</v>
+        <v>45408.8125</v>
       </c>
       <c r="F23" t="n">
-        <v>2066</v>
+        <v>6116</v>
       </c>
       <c r="G23" t="n">
-        <v>61243.7</v>
+        <v>63806</v>
       </c>
       <c r="H23" t="n">
-        <v>61263.5</v>
+        <v>63932.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>61388</v>
+        <v>63763</v>
       </c>
       <c r="B24" t="n">
-        <v>61429</v>
+        <v>63966</v>
       </c>
       <c r="C24" t="n">
-        <v>61269</v>
+        <v>63745.5</v>
       </c>
       <c r="D24" t="n">
-        <v>61280</v>
+        <v>63813.5</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45399.92708333334</v>
+        <v>45408.82291666666</v>
       </c>
       <c r="F24" t="n">
-        <v>3151</v>
+        <v>3511</v>
       </c>
       <c r="G24" t="n">
-        <v>61274.1</v>
+        <v>63801.1</v>
       </c>
       <c r="H24" t="n">
-        <v>61305</v>
+        <v>63875.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>61518</v>
+        <v>63986</v>
       </c>
       <c r="B25" t="n">
-        <v>61611.5</v>
+        <v>64020</v>
       </c>
       <c r="C25" t="n">
-        <v>61376</v>
+        <v>63778.5</v>
       </c>
       <c r="D25" t="n">
-        <v>61388</v>
+        <v>63778.5</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45399.9375</v>
+        <v>45408.83333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>7461</v>
+        <v>6421</v>
       </c>
       <c r="G25" t="n">
-        <v>61312</v>
+        <v>63814</v>
       </c>
       <c r="H25" t="n">
-        <v>61376</v>
+        <v>63912.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>61706.5</v>
+        <v>63927</v>
       </c>
       <c r="B26" t="n">
-        <v>61736.5</v>
+        <v>64131</v>
       </c>
       <c r="C26" t="n">
-        <v>61488.5</v>
+        <v>63901.5</v>
       </c>
       <c r="D26" t="n">
-        <v>61527.5</v>
+        <v>63991</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45399.94791666666</v>
+        <v>45408.84375</v>
       </c>
       <c r="F26" t="n">
-        <v>5025</v>
+        <v>4526</v>
       </c>
       <c r="G26" t="n">
-        <v>61332.4</v>
+        <v>63838.4</v>
       </c>
       <c r="H26" t="n">
-        <v>61486.2</v>
+        <v>63917.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>61600.5</v>
+        <v>63939</v>
       </c>
       <c r="B27" t="n">
-        <v>61780</v>
+        <v>64011</v>
       </c>
       <c r="C27" t="n">
-        <v>61583</v>
+        <v>63907</v>
       </c>
       <c r="D27" t="n">
-        <v>61712.5</v>
+        <v>63926</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45399.95833333334</v>
+        <v>45408.85416666666</v>
       </c>
       <c r="F27" t="n">
-        <v>1690</v>
+        <v>1619</v>
       </c>
       <c r="G27" t="n">
-        <v>61328.1</v>
+        <v>63856.5</v>
       </c>
       <c r="H27" t="n">
-        <v>61524.3</v>
+        <v>63924.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>61297.5</v>
+        <v>63983</v>
       </c>
       <c r="B28" t="n">
-        <v>61601.5</v>
+        <v>63983</v>
       </c>
       <c r="C28" t="n">
-        <v>61279.5</v>
+        <v>63906.5</v>
       </c>
       <c r="D28" t="n">
-        <v>61601.5</v>
+        <v>63940</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45399.96875</v>
+        <v>45408.86458333334</v>
       </c>
       <c r="F28" t="n">
-        <v>3754</v>
+        <v>1801</v>
       </c>
       <c r="G28" t="n">
-        <v>61302.6</v>
+        <v>63880.1</v>
       </c>
       <c r="H28" t="n">
-        <v>61448.7</v>
+        <v>63944.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>61341</v>
+        <v>63897.5</v>
       </c>
       <c r="B29" t="n">
-        <v>61377.5</v>
+        <v>64043</v>
       </c>
       <c r="C29" t="n">
-        <v>61228.5</v>
+        <v>63886</v>
       </c>
       <c r="D29" t="n">
-        <v>61291</v>
+        <v>63998.5</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45399.97916666666</v>
+        <v>45408.875</v>
       </c>
       <c r="F29" t="n">
-        <v>2855</v>
+        <v>1650</v>
       </c>
       <c r="G29" t="n">
-        <v>61277.4</v>
+        <v>63901.2</v>
       </c>
       <c r="H29" t="n">
-        <v>61412.8</v>
+        <v>63928.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>61292</v>
+        <v>63873.5</v>
       </c>
       <c r="B30" t="n">
-        <v>61392.5</v>
+        <v>63946</v>
       </c>
       <c r="C30" t="n">
-        <v>61250</v>
+        <v>63832.5</v>
       </c>
       <c r="D30" t="n">
-        <v>61313</v>
+        <v>63896.5</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45399.98958333334</v>
+        <v>45408.88541666666</v>
       </c>
       <c r="F30" t="n">
-        <v>815</v>
+        <v>3904</v>
       </c>
       <c r="G30" t="n">
-        <v>61268.9</v>
+        <v>63908.3</v>
       </c>
       <c r="H30" t="n">
-        <v>61372.5</v>
+        <v>63910.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>61133</v>
+        <v>64004</v>
       </c>
       <c r="B31" t="n">
-        <v>61487.5</v>
+        <v>64029</v>
       </c>
       <c r="C31" t="n">
-        <v>61071</v>
+        <v>63873.5</v>
       </c>
       <c r="D31" t="n">
-        <v>61282.5</v>
+        <v>63873.5</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45400</v>
+        <v>45408.89583333334</v>
       </c>
       <c r="F31" t="n">
-        <v>7804</v>
+        <v>4250</v>
       </c>
       <c r="G31" t="n">
-        <v>61267.1</v>
+        <v>63926.2</v>
       </c>
       <c r="H31" t="n">
-        <v>61292.7</v>
+        <v>63941.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>61213</v>
+        <v>64072.5</v>
       </c>
       <c r="B32" t="n">
-        <v>61252</v>
+        <v>64088</v>
       </c>
       <c r="C32" t="n">
-        <v>60953.5</v>
+        <v>63963</v>
       </c>
       <c r="D32" t="n">
-        <v>61140</v>
+        <v>64004</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45400.01041666666</v>
+        <v>45408.90625</v>
       </c>
       <c r="F32" t="n">
-        <v>5727</v>
+        <v>1491</v>
       </c>
       <c r="G32" t="n">
-        <v>61276.9</v>
+        <v>63945.6</v>
       </c>
       <c r="H32" t="n">
-        <v>61266.1</v>
+        <v>63985.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>61242</v>
+        <v>64002.5</v>
       </c>
       <c r="B33" t="n">
-        <v>61304</v>
+        <v>64067.5</v>
       </c>
       <c r="C33" t="n">
-        <v>60968</v>
+        <v>63967.5</v>
       </c>
       <c r="D33" t="n">
-        <v>61183</v>
+        <v>64067.5</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45400.02083333334</v>
+        <v>45408.91666666666</v>
       </c>
       <c r="F33" t="n">
-        <v>2765</v>
+        <v>1655</v>
       </c>
       <c r="G33" t="n">
-        <v>61290.1</v>
+        <v>63958.3</v>
       </c>
       <c r="H33" t="n">
-        <v>61258.1</v>
+        <v>63990.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>61521</v>
+        <v>63832</v>
       </c>
       <c r="B34" t="n">
-        <v>61545</v>
+        <v>64032.5</v>
       </c>
       <c r="C34" t="n">
-        <v>61216.5</v>
+        <v>63774</v>
       </c>
       <c r="D34" t="n">
-        <v>61234.5</v>
+        <v>64002.5</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45400.03125</v>
+        <v>45408.92708333334</v>
       </c>
       <c r="F34" t="n">
-        <v>5259</v>
+        <v>7608</v>
       </c>
       <c r="G34" t="n">
-        <v>61314.8</v>
+        <v>63957.9</v>
       </c>
       <c r="H34" t="n">
-        <v>61345.7</v>
+        <v>63938</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>61593</v>
+        <v>63778.5</v>
       </c>
       <c r="B35" t="n">
-        <v>61686.5</v>
+        <v>63902</v>
       </c>
       <c r="C35" t="n">
-        <v>61495.5</v>
+        <v>63753.5</v>
       </c>
       <c r="D35" t="n">
-        <v>61532.5</v>
+        <v>63815</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45400.04166666666</v>
+        <v>45408.9375</v>
       </c>
       <c r="F35" t="n">
-        <v>2976</v>
+        <v>3382</v>
       </c>
       <c r="G35" t="n">
-        <v>61342.5</v>
+        <v>63952</v>
       </c>
       <c r="H35" t="n">
-        <v>61428.1</v>
+        <v>63884.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>61609.5</v>
+        <v>63850</v>
       </c>
       <c r="B36" t="n">
-        <v>61662.5</v>
+        <v>63856</v>
       </c>
       <c r="C36" t="n">
-        <v>61392.5</v>
+        <v>63700</v>
       </c>
       <c r="D36" t="n">
-        <v>61618.5</v>
+        <v>63758</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45400.05208333334</v>
+        <v>45408.94791666666</v>
       </c>
       <c r="F36" t="n">
-        <v>3247</v>
+        <v>2013</v>
       </c>
       <c r="G36" t="n">
-        <v>61353.4</v>
+        <v>63943.7</v>
       </c>
       <c r="H36" t="n">
-        <v>61488.6</v>
+        <v>63873.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>61542</v>
+        <v>63855</v>
       </c>
       <c r="B37" t="n">
-        <v>61611.5</v>
+        <v>63938.5</v>
       </c>
       <c r="C37" t="n">
-        <v>61438.5</v>
+        <v>63851.5</v>
       </c>
       <c r="D37" t="n">
-        <v>61543</v>
+        <v>63851.5</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>45400.0625</v>
+        <v>45408.95833333334</v>
       </c>
       <c r="F37" t="n">
-        <v>1351</v>
+        <v>1061</v>
       </c>
       <c r="G37" t="n">
-        <v>61372.4</v>
+        <v>63931.1</v>
       </c>
       <c r="H37" t="n">
-        <v>61506.4</v>
+        <v>63867.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61665.5</v>
+        <v>63862</v>
       </c>
       <c r="B38" t="n">
-        <v>61679.5</v>
+        <v>63872</v>
       </c>
       <c r="C38" t="n">
-        <v>61474</v>
+        <v>63775.5</v>
       </c>
       <c r="D38" t="n">
-        <v>61524</v>
+        <v>63844.5</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>45400.07291666666</v>
+        <v>45408.96875</v>
       </c>
       <c r="F38" t="n">
-        <v>1714</v>
+        <v>2181</v>
       </c>
       <c r="G38" t="n">
-        <v>61413</v>
+        <v>63923.4</v>
       </c>
       <c r="H38" t="n">
-        <v>61559.4</v>
+        <v>63865.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>61747</v>
+        <v>63826.5</v>
       </c>
       <c r="B39" t="n">
-        <v>61955</v>
+        <v>63866</v>
       </c>
       <c r="C39" t="n">
-        <v>61596</v>
+        <v>63784</v>
       </c>
       <c r="D39" t="n">
-        <v>61669</v>
+        <v>63861.5</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>45400.08333333334</v>
+        <v>45408.97916666666</v>
       </c>
       <c r="F39" t="n">
-        <v>10929</v>
+        <v>1336</v>
       </c>
       <c r="G39" t="n">
-        <v>61427</v>
+        <v>63913.9</v>
       </c>
       <c r="H39" t="n">
-        <v>61622</v>
+        <v>63852.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>61533</v>
+        <v>63788</v>
       </c>
       <c r="B40" t="n">
-        <v>61727.5</v>
+        <v>63852.5</v>
       </c>
       <c r="C40" t="n">
-        <v>61471</v>
+        <v>63775.5</v>
       </c>
       <c r="D40" t="n">
-        <v>61724</v>
+        <v>63830</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>45400.09375</v>
+        <v>45408.98958333334</v>
       </c>
       <c r="F40" t="n">
-        <v>7094</v>
+        <v>706</v>
       </c>
       <c r="G40" t="n">
-        <v>61433.8</v>
+        <v>63899.4</v>
       </c>
       <c r="H40" t="n">
-        <v>61592.3</v>
+        <v>63831</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>61628.5</v>
+        <v>63918.5</v>
       </c>
       <c r="B41" t="n">
-        <v>61728.5</v>
+        <v>63924.5</v>
       </c>
       <c r="C41" t="n">
-        <v>61519</v>
+        <v>63754.5</v>
       </c>
       <c r="D41" t="n">
-        <v>61524.5</v>
+        <v>63788</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>45400.10416666666</v>
+        <v>45409</v>
       </c>
       <c r="F41" t="n">
-        <v>2128</v>
+        <v>3863</v>
       </c>
       <c r="G41" t="n">
-        <v>61458.4</v>
+        <v>63896.6</v>
       </c>
       <c r="H41" t="n">
-        <v>61604.4</v>
+        <v>63860.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>61685</v>
+        <v>63552.5</v>
       </c>
       <c r="B42" t="n">
-        <v>61721.5</v>
+        <v>63942</v>
       </c>
       <c r="C42" t="n">
-        <v>61567</v>
+        <v>63527</v>
       </c>
       <c r="D42" t="n">
-        <v>61622</v>
+        <v>63914.5</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>45400.11458333334</v>
+        <v>45409.01041666666</v>
       </c>
       <c r="F42" t="n">
-        <v>2904</v>
+        <v>8807</v>
       </c>
       <c r="G42" t="n">
-        <v>61476.8</v>
+        <v>63877.3</v>
       </c>
       <c r="H42" t="n">
-        <v>61631.2</v>
+        <v>63757.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>62091.5</v>
+        <v>63023</v>
       </c>
       <c r="B43" t="n">
-        <v>62186.5</v>
+        <v>63562</v>
       </c>
       <c r="C43" t="n">
-        <v>61681</v>
+        <v>62972.5</v>
       </c>
       <c r="D43" t="n">
-        <v>61681</v>
+        <v>63550</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>45400.125</v>
+        <v>45409.02083333334</v>
       </c>
       <c r="F43" t="n">
-        <v>9328</v>
+        <v>29198</v>
       </c>
       <c r="G43" t="n">
-        <v>61517.4</v>
+        <v>63836.7</v>
       </c>
       <c r="H43" t="n">
-        <v>61784.7</v>
+        <v>63512.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>61948.5</v>
+        <v>63211</v>
       </c>
       <c r="B44" t="n">
-        <v>62239.5</v>
+        <v>63212.5</v>
       </c>
       <c r="C44" t="n">
-        <v>61941.5</v>
+        <v>62863.5</v>
       </c>
       <c r="D44" t="n">
-        <v>62089.5</v>
+        <v>63021</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>45400.13541666666</v>
+        <v>45409.03125</v>
       </c>
       <c r="F44" t="n">
-        <v>8742</v>
+        <v>18794</v>
       </c>
       <c r="G44" t="n">
-        <v>61545.4</v>
+        <v>63809.1</v>
       </c>
       <c r="H44" t="n">
-        <v>61839.3</v>
+        <v>63412.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>62055</v>
+        <v>63179.5</v>
       </c>
       <c r="B45" t="n">
-        <v>62257</v>
+        <v>63301.5</v>
       </c>
       <c r="C45" t="n">
-        <v>61867.5</v>
+        <v>63018.5</v>
       </c>
       <c r="D45" t="n">
-        <v>61966.5</v>
+        <v>63239</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>45400.14583333334</v>
+        <v>45409.04166666666</v>
       </c>
       <c r="F45" t="n">
-        <v>10074</v>
+        <v>12977</v>
       </c>
       <c r="G45" t="n">
-        <v>61572.2</v>
+        <v>63768.8</v>
       </c>
       <c r="H45" t="n">
-        <v>61911.2</v>
+        <v>63334.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>62003.5</v>
+        <v>62630</v>
       </c>
       <c r="B46" t="n">
-        <v>62111.5</v>
+        <v>63191.5</v>
       </c>
       <c r="C46" t="n">
-        <v>61963.5</v>
+        <v>62380.5</v>
       </c>
       <c r="D46" t="n">
-        <v>62043</v>
+        <v>63145.5</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>45400.15625</v>
+        <v>45409.05208333334</v>
       </c>
       <c r="F46" t="n">
-        <v>3183</v>
+        <v>40414</v>
       </c>
       <c r="G46" t="n">
-        <v>61587.1</v>
+        <v>63703.9</v>
       </c>
       <c r="H46" t="n">
-        <v>61942</v>
+        <v>63099.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>61948.5</v>
+        <v>62705</v>
       </c>
       <c r="B47" t="n">
-        <v>62102.5</v>
+        <v>62778</v>
       </c>
       <c r="C47" t="n">
-        <v>61938</v>
+        <v>62600</v>
       </c>
       <c r="D47" t="n">
-        <v>62031.5</v>
+        <v>62623.5</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>45400.16666666666</v>
+        <v>45409.0625</v>
       </c>
       <c r="F47" t="n">
-        <v>4917</v>
+        <v>4834</v>
       </c>
       <c r="G47" t="n">
-        <v>61604.5</v>
+        <v>63642.2</v>
       </c>
       <c r="H47" t="n">
-        <v>61944.1</v>
+        <v>62968.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>62067.5</v>
+        <v>62611.5</v>
       </c>
       <c r="B48" t="n">
-        <v>62080.5</v>
+        <v>62772</v>
       </c>
       <c r="C48" t="n">
-        <v>61827</v>
+        <v>62542</v>
       </c>
       <c r="D48" t="n">
-        <v>61948.5</v>
+        <v>62693</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>45400.17708333334</v>
+        <v>45409.07291666666</v>
       </c>
       <c r="F48" t="n">
-        <v>10392</v>
+        <v>6591</v>
       </c>
       <c r="G48" t="n">
-        <v>61643</v>
+        <v>63573.6</v>
       </c>
       <c r="H48" t="n">
-        <v>61985.3</v>
+        <v>62849.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>61806.5</v>
+        <v>62876.5</v>
       </c>
       <c r="B49" t="n">
-        <v>62092.5</v>
+        <v>62910.5</v>
       </c>
       <c r="C49" t="n">
-        <v>61756</v>
+        <v>62499</v>
       </c>
       <c r="D49" t="n">
-        <v>62051</v>
+        <v>62581</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>45400.1875</v>
+        <v>45409.08333333334</v>
       </c>
       <c r="F49" t="n">
-        <v>11252</v>
+        <v>11880</v>
       </c>
       <c r="G49" t="n">
-        <v>61666.3</v>
+        <v>63522.6</v>
       </c>
       <c r="H49" t="n">
-        <v>61925.7</v>
+        <v>62858.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>61663</v>
+        <v>63185.5</v>
       </c>
       <c r="B50" t="n">
-        <v>61800.5</v>
+        <v>63201.5</v>
       </c>
       <c r="C50" t="n">
-        <v>61569</v>
+        <v>62862.5</v>
       </c>
       <c r="D50" t="n">
-        <v>61800</v>
+        <v>62883.5</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>45400.19791666666</v>
+        <v>45409.09375</v>
       </c>
       <c r="F50" t="n">
-        <v>10588</v>
+        <v>12084</v>
       </c>
       <c r="G50" t="n">
-        <v>61684.8</v>
+        <v>63488.2</v>
       </c>
       <c r="H50" t="n">
-        <v>61838.1</v>
+        <v>62967.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>61620.5</v>
+        <v>63042.5</v>
       </c>
       <c r="B51" t="n">
-        <v>61757.5</v>
+        <v>63335</v>
       </c>
       <c r="C51" t="n">
-        <v>61620.5</v>
+        <v>63020</v>
       </c>
       <c r="D51" t="n">
-        <v>61665.5</v>
+        <v>63182.5</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>45400.20833333334</v>
+        <v>45409.10416666666</v>
       </c>
       <c r="F51" t="n">
-        <v>3152</v>
+        <v>10817</v>
       </c>
       <c r="G51" t="n">
-        <v>61709.2</v>
+        <v>63440.1</v>
       </c>
       <c r="H51" t="n">
-        <v>61765.6</v>
+        <v>62992.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>61725.5</v>
+        <v>62945.5</v>
       </c>
       <c r="B52" t="n">
-        <v>61741</v>
+        <v>63082.5</v>
       </c>
       <c r="C52" t="n">
-        <v>61621.5</v>
+        <v>62931.5</v>
       </c>
       <c r="D52" t="n">
-        <v>61621.5</v>
+        <v>63041.5</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>45400.21875</v>
+        <v>45409.11458333334</v>
       </c>
       <c r="F52" t="n">
-        <v>2055</v>
+        <v>8300</v>
       </c>
       <c r="G52" t="n">
-        <v>61734.8</v>
+        <v>63383.8</v>
       </c>
       <c r="H52" t="n">
-        <v>61752.2</v>
+        <v>62976.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>61377.5</v>
+        <v>63057</v>
       </c>
       <c r="B53" t="n">
-        <v>61836</v>
+        <v>63063.5</v>
       </c>
       <c r="C53" t="n">
-        <v>61254</v>
+        <v>62828.5</v>
       </c>
       <c r="D53" t="n">
-        <v>61727</v>
+        <v>62946.5</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>45400.22916666666</v>
+        <v>45409.125</v>
       </c>
       <c r="F53" t="n">
-        <v>17005</v>
+        <v>11437</v>
       </c>
       <c r="G53" t="n">
-        <v>61741.6</v>
+        <v>63336.5</v>
       </c>
       <c r="H53" t="n">
-        <v>61627.3</v>
+        <v>63003.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>61093</v>
+        <v>63089.5</v>
       </c>
       <c r="B54" t="n">
-        <v>61450</v>
+        <v>63153</v>
       </c>
       <c r="C54" t="n">
-        <v>60989.5</v>
+        <v>63006</v>
       </c>
       <c r="D54" t="n">
-        <v>61373</v>
+        <v>63058</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>45400.23958333334</v>
+        <v>45409.13541666666</v>
       </c>
       <c r="F54" t="n">
-        <v>9668</v>
+        <v>5907</v>
       </c>
       <c r="G54" t="n">
-        <v>61720.2</v>
+        <v>63299.4</v>
       </c>
       <c r="H54" t="n">
-        <v>61449.2</v>
+        <v>63032.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>61241</v>
+        <v>63113</v>
       </c>
       <c r="B55" t="n">
-        <v>61308</v>
+        <v>63118.5</v>
       </c>
       <c r="C55" t="n">
-        <v>61018</v>
+        <v>63016.5</v>
       </c>
       <c r="D55" t="n">
-        <v>61084</v>
+        <v>63090.5</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>45400.25</v>
+        <v>45409.14583333334</v>
       </c>
       <c r="F55" t="n">
-        <v>9794</v>
+        <v>8005</v>
       </c>
       <c r="G55" t="n">
-        <v>61702.6</v>
+        <v>63266.1</v>
       </c>
       <c r="H55" t="n">
-        <v>61379.8</v>
+        <v>63059.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>61169.5</v>
+        <v>63092</v>
       </c>
       <c r="B56" t="n">
-        <v>61297</v>
+        <v>63163</v>
       </c>
       <c r="C56" t="n">
-        <v>61006</v>
+        <v>62979</v>
       </c>
       <c r="D56" t="n">
-        <v>61243</v>
+        <v>63117.5</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>45400.26041666666</v>
+        <v>45409.15625</v>
       </c>
       <c r="F56" t="n">
-        <v>5365</v>
+        <v>3302</v>
       </c>
       <c r="G56" t="n">
-        <v>61680.6</v>
+        <v>63228.2</v>
       </c>
       <c r="H56" t="n">
-        <v>61309.7</v>
+        <v>63070.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>60922</v>
+        <v>62976</v>
       </c>
       <c r="B57" t="n">
-        <v>61188.5</v>
+        <v>63099.5</v>
       </c>
       <c r="C57" t="n">
-        <v>60806.5</v>
+        <v>62971.5</v>
       </c>
       <c r="D57" t="n">
-        <v>61173</v>
+        <v>63050.5</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>45400.27083333334</v>
+        <v>45409.16666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>13777</v>
+        <v>2973</v>
       </c>
       <c r="G57" t="n">
-        <v>61649.6</v>
+        <v>63184.2</v>
       </c>
       <c r="H57" t="n">
-        <v>61180.5</v>
+        <v>63038.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>61150.5</v>
+        <v>63141</v>
       </c>
       <c r="B58" t="n">
-        <v>61151</v>
+        <v>63157</v>
       </c>
       <c r="C58" t="n">
-        <v>60914.5</v>
+        <v>62958.5</v>
       </c>
       <c r="D58" t="n">
-        <v>60914.5</v>
+        <v>62976</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>45400.28125</v>
+        <v>45409.17708333334</v>
       </c>
       <c r="F58" t="n">
-        <v>14742</v>
+        <v>3685</v>
       </c>
       <c r="G58" t="n">
-        <v>61623.8</v>
+        <v>63148.2</v>
       </c>
       <c r="H58" t="n">
-        <v>61170.5</v>
+        <v>63072.8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>61242.5</v>
+        <v>63062</v>
       </c>
       <c r="B59" t="n">
-        <v>61324.5</v>
+        <v>63198.5</v>
       </c>
       <c r="C59" t="n">
-        <v>61096</v>
+        <v>63035</v>
       </c>
       <c r="D59" t="n">
-        <v>61170</v>
+        <v>63141</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>45400.29166666666</v>
+        <v>45409.1875</v>
       </c>
       <c r="F59" t="n">
-        <v>12858</v>
+        <v>5866</v>
       </c>
       <c r="G59" t="n">
-        <v>61598.6</v>
+        <v>63110</v>
       </c>
       <c r="H59" t="n">
-        <v>61194.5</v>
+        <v>63069.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>61208.5</v>
+        <v>63072.5</v>
       </c>
       <c r="B60" t="n">
-        <v>61372.5</v>
+        <v>63102</v>
       </c>
       <c r="C60" t="n">
-        <v>61173</v>
+        <v>62954</v>
       </c>
       <c r="D60" t="n">
-        <v>61260.5</v>
+        <v>63057</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>45400.30208333334</v>
+        <v>45409.19791666666</v>
       </c>
       <c r="F60" t="n">
-        <v>6378</v>
+        <v>5052</v>
       </c>
       <c r="G60" t="n">
-        <v>61582.4</v>
+        <v>63074.2</v>
       </c>
       <c r="H60" t="n">
-        <v>61199.2</v>
+        <v>63070.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>61065</v>
+        <v>62948</v>
       </c>
       <c r="B61" t="n">
-        <v>61239.5</v>
+        <v>63119</v>
       </c>
       <c r="C61" t="n">
-        <v>60944.5</v>
+        <v>62813.5</v>
       </c>
       <c r="D61" t="n">
-        <v>61201.5</v>
+        <v>63080.5</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>45400.3125</v>
+        <v>45409.20833333334</v>
       </c>
       <c r="F61" t="n">
-        <v>16384</v>
+        <v>16410</v>
       </c>
       <c r="G61" t="n">
-        <v>61554.2</v>
+        <v>63025.7</v>
       </c>
       <c r="H61" t="n">
-        <v>61154.4</v>
+        <v>63029.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61187</v>
+        <v>63042</v>
       </c>
       <c r="B62" t="n">
-        <v>61326.5</v>
+        <v>63074</v>
       </c>
       <c r="C62" t="n">
-        <v>61084.5</v>
+        <v>62914</v>
       </c>
       <c r="D62" t="n">
-        <v>61084.5</v>
+        <v>62914</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>45400.32291666666</v>
+        <v>45409.21875</v>
       </c>
       <c r="F62" t="n">
-        <v>5679</v>
+        <v>4001</v>
       </c>
       <c r="G62" t="n">
-        <v>61529.3</v>
+        <v>63000.2</v>
       </c>
       <c r="H62" t="n">
-        <v>61165.3</v>
+        <v>63033.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>60982</v>
+        <v>63077</v>
       </c>
       <c r="B63" t="n">
-        <v>61297</v>
+        <v>63099</v>
       </c>
       <c r="C63" t="n">
-        <v>60889</v>
+        <v>62991.5</v>
       </c>
       <c r="D63" t="n">
-        <v>61191.5</v>
+        <v>63045</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>45400.33333333334</v>
+        <v>45409.22916666666</v>
       </c>
       <c r="F63" t="n">
-        <v>6986</v>
+        <v>11926</v>
       </c>
       <c r="G63" t="n">
-        <v>61473.8</v>
+        <v>63002.8</v>
       </c>
       <c r="H63" t="n">
-        <v>61104.2</v>
+        <v>63048.1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>61134.5</v>
+        <v>63000</v>
       </c>
       <c r="B64" t="n">
-        <v>61134.5</v>
+        <v>63065.5</v>
       </c>
       <c r="C64" t="n">
-        <v>60862.5</v>
+        <v>62943.5</v>
       </c>
       <c r="D64" t="n">
-        <v>60944</v>
+        <v>63058</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>45400.34375</v>
+        <v>45409.23958333334</v>
       </c>
       <c r="F64" t="n">
-        <v>12334</v>
+        <v>3967</v>
       </c>
       <c r="G64" t="n">
-        <v>61433.2</v>
+        <v>62992.3</v>
       </c>
       <c r="H64" t="n">
-        <v>61114.3</v>
+        <v>63032.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>61424.5</v>
+        <v>63031</v>
       </c>
       <c r="B65" t="n">
-        <v>61571</v>
+        <v>63079</v>
       </c>
       <c r="C65" t="n">
-        <v>61162.5</v>
+        <v>62937.5</v>
       </c>
       <c r="D65" t="n">
-        <v>61162.5</v>
+        <v>63003</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>45400.35416666666</v>
+        <v>45409.25</v>
       </c>
       <c r="F65" t="n">
-        <v>33156</v>
+        <v>3986</v>
       </c>
       <c r="G65" t="n">
-        <v>61401.6</v>
+        <v>62984.9</v>
       </c>
       <c r="H65" t="n">
-        <v>61217.7</v>
+        <v>63031.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>61352</v>
+        <v>62958.5</v>
       </c>
       <c r="B66" t="n">
-        <v>61498.5</v>
+        <v>63084.5</v>
       </c>
       <c r="C66" t="n">
-        <v>61285.5</v>
+        <v>62916.5</v>
       </c>
       <c r="D66" t="n">
-        <v>61450</v>
+        <v>63029.5</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>45400.36458333334</v>
+        <v>45409.26041666666</v>
       </c>
       <c r="F66" t="n">
-        <v>6324</v>
+        <v>3811</v>
       </c>
       <c r="G66" t="n">
-        <v>61369</v>
+        <v>63001.3</v>
       </c>
       <c r="H66" t="n">
-        <v>61262.5</v>
+        <v>63007.3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>61568</v>
+        <v>62991.5</v>
       </c>
       <c r="B67" t="n">
-        <v>61726</v>
+        <v>63039</v>
       </c>
       <c r="C67" t="n">
-        <v>61332</v>
+        <v>62870.5</v>
       </c>
       <c r="D67" t="n">
-        <v>61356.5</v>
+        <v>62966</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>45400.375</v>
+        <v>45409.27083333334</v>
       </c>
       <c r="F67" t="n">
-        <v>9403</v>
+        <v>10253</v>
       </c>
       <c r="G67" t="n">
-        <v>61350</v>
+        <v>63015.6</v>
       </c>
       <c r="H67" t="n">
-        <v>61364.3</v>
+        <v>63002</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>61486.5</v>
+        <v>63040.5</v>
       </c>
       <c r="B68" t="n">
-        <v>61592.5</v>
+        <v>63156.5</v>
       </c>
       <c r="C68" t="n">
-        <v>61453.5</v>
+        <v>62992</v>
       </c>
       <c r="D68" t="n">
-        <v>61554.5</v>
+        <v>62992</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>45400.38541666666</v>
+        <v>45409.28125</v>
       </c>
       <c r="F68" t="n">
-        <v>4289</v>
+        <v>5990</v>
       </c>
       <c r="G68" t="n">
-        <v>61321</v>
+        <v>63037.1</v>
       </c>
       <c r="H68" t="n">
-        <v>61405</v>
+        <v>63014.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>61413</v>
+        <v>63113.5</v>
       </c>
       <c r="B69" t="n">
-        <v>61625</v>
+        <v>63163.5</v>
       </c>
       <c r="C69" t="n">
-        <v>61369</v>
+        <v>62997</v>
       </c>
       <c r="D69" t="n">
-        <v>61484</v>
+        <v>63032</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>45400.39583333334</v>
+        <v>45409.29166666666</v>
       </c>
       <c r="F69" t="n">
-        <v>3670</v>
+        <v>4180</v>
       </c>
       <c r="G69" t="n">
-        <v>61301.3</v>
+        <v>63048.9</v>
       </c>
       <c r="H69" t="n">
-        <v>61407.7</v>
+        <v>63047.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>61643</v>
+        <v>63113.5</v>
       </c>
       <c r="B70" t="n">
-        <v>61652.5</v>
+        <v>63156</v>
       </c>
       <c r="C70" t="n">
-        <v>61397</v>
+        <v>63060</v>
       </c>
       <c r="D70" t="n">
-        <v>61406</v>
+        <v>63113.5</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>45400.40625</v>
+        <v>45409.30208333334</v>
       </c>
       <c r="F70" t="n">
-        <v>2997</v>
+        <v>5532</v>
       </c>
       <c r="G70" t="n">
-        <v>61300.3</v>
+        <v>63045.3</v>
       </c>
       <c r="H70" t="n">
-        <v>61486.1</v>
+        <v>63069.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>61561.5</v>
+        <v>63051.5</v>
       </c>
       <c r="B71" t="n">
-        <v>61710</v>
+        <v>63169</v>
       </c>
       <c r="C71" t="n">
-        <v>61520.5</v>
+        <v>63028.5</v>
       </c>
       <c r="D71" t="n">
-        <v>61632</v>
+        <v>63113.5</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>45400.41666666666</v>
+        <v>45409.3125</v>
       </c>
       <c r="F71" t="n">
-        <v>3776</v>
+        <v>4483</v>
       </c>
       <c r="G71" t="n">
-        <v>61297.4</v>
+        <v>63045.8</v>
       </c>
       <c r="H71" t="n">
-        <v>61511.3</v>
+        <v>63063.6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>61663.5</v>
+        <v>62977</v>
       </c>
       <c r="B72" t="n">
-        <v>61688.5</v>
+        <v>63071</v>
       </c>
       <c r="C72" t="n">
-        <v>61508</v>
+        <v>62956</v>
       </c>
       <c r="D72" t="n">
-        <v>61515</v>
+        <v>63045</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>45400.42708333334</v>
+        <v>45409.32291666666</v>
       </c>
       <c r="F72" t="n">
-        <v>3978</v>
+        <v>4688</v>
       </c>
       <c r="G72" t="n">
-        <v>61294.2</v>
+        <v>63047.4</v>
       </c>
       <c r="H72" t="n">
-        <v>61562</v>
+        <v>63034.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>61618.5</v>
+        <v>62979.5</v>
       </c>
       <c r="B73" t="n">
-        <v>61787</v>
+        <v>63041</v>
       </c>
       <c r="C73" t="n">
-        <v>61600.5</v>
+        <v>62962.5</v>
       </c>
       <c r="D73" t="n">
-        <v>61664.5</v>
+        <v>62983</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>45400.4375</v>
+        <v>45409.33333333334</v>
       </c>
       <c r="F73" t="n">
-        <v>10077</v>
+        <v>3456</v>
       </c>
       <c r="G73" t="n">
-        <v>61306.3</v>
+        <v>63043.5</v>
       </c>
       <c r="H73" t="n">
-        <v>61580.8</v>
+        <v>63016.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>61832.5</v>
+        <v>63007</v>
       </c>
       <c r="B74" t="n">
-        <v>61935.5</v>
+        <v>63037</v>
       </c>
       <c r="C74" t="n">
-        <v>61612</v>
+        <v>62928</v>
       </c>
       <c r="D74" t="n">
-        <v>61614.5</v>
+        <v>62977.5</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>45400.44791666666</v>
+        <v>45409.34375</v>
       </c>
       <c r="F74" t="n">
-        <v>12265</v>
+        <v>6006</v>
       </c>
       <c r="G74" t="n">
-        <v>61343.3</v>
+        <v>63039.4</v>
       </c>
       <c r="H74" t="n">
-        <v>61664.7</v>
+        <v>63013.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>62416</v>
+        <v>63028</v>
       </c>
       <c r="B75" t="n">
-        <v>62482</v>
+        <v>63031.5</v>
       </c>
       <c r="C75" t="n">
-        <v>61832.5</v>
+        <v>62945.5</v>
       </c>
       <c r="D75" t="n">
-        <v>61832.5</v>
+        <v>63031.5</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>45400.45833333334</v>
+        <v>45409.35416666666</v>
       </c>
       <c r="F75" t="n">
-        <v>44027</v>
+        <v>2253</v>
       </c>
       <c r="G75" t="n">
-        <v>61402</v>
+        <v>63035.1</v>
       </c>
       <c r="H75" t="n">
-        <v>61915.1</v>
+        <v>63018.1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>62880.5</v>
+        <v>63030</v>
       </c>
       <c r="B76" t="n">
-        <v>63044.5</v>
+        <v>63070</v>
       </c>
       <c r="C76" t="n">
-        <v>62416</v>
+        <v>62995</v>
       </c>
       <c r="D76" t="n">
-        <v>62417</v>
+        <v>63028</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>45400.46875</v>
+        <v>45409.36458333334</v>
       </c>
       <c r="F76" t="n">
-        <v>48037</v>
+        <v>2775</v>
       </c>
       <c r="G76" t="n">
-        <v>61487.6</v>
+        <v>63032</v>
       </c>
       <c r="H76" t="n">
-        <v>62236.9</v>
+        <v>63022.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>62640.5</v>
+        <v>62912</v>
       </c>
       <c r="B77" t="n">
-        <v>63091.5</v>
+        <v>63070</v>
       </c>
       <c r="C77" t="n">
-        <v>62627.5</v>
+        <v>62879</v>
       </c>
       <c r="D77" t="n">
-        <v>62927.5</v>
+        <v>63030</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>45400.47916666666</v>
+        <v>45409.375</v>
       </c>
       <c r="F77" t="n">
-        <v>29947</v>
+        <v>11522</v>
       </c>
       <c r="G77" t="n">
-        <v>61573.5</v>
+        <v>63028.8</v>
       </c>
       <c r="H77" t="n">
-        <v>62371.5</v>
+        <v>62985.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>62600.5</v>
+        <v>62982</v>
       </c>
       <c r="B78" t="n">
-        <v>62775.5</v>
+        <v>62993</v>
       </c>
       <c r="C78" t="n">
-        <v>62561</v>
+        <v>62908</v>
       </c>
       <c r="D78" t="n">
-        <v>62641</v>
+        <v>62912</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>45400.48958333334</v>
+        <v>45409.38541666666</v>
       </c>
       <c r="F78" t="n">
-        <v>25354</v>
+        <v>3818</v>
       </c>
       <c r="G78" t="n">
-        <v>61646</v>
+        <v>63020.8</v>
       </c>
       <c r="H78" t="n">
-        <v>62447.8</v>
+        <v>62984.3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>62459</v>
+        <v>63004.5</v>
       </c>
       <c r="B79" t="n">
-        <v>62731</v>
+        <v>63045</v>
       </c>
       <c r="C79" t="n">
-        <v>62348</v>
+        <v>62938</v>
       </c>
       <c r="D79" t="n">
-        <v>62605</v>
+        <v>62982</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>45400.5</v>
+        <v>45409.39583333334</v>
       </c>
       <c r="F79" t="n">
-        <v>8207</v>
+        <v>6278</v>
       </c>
       <c r="G79" t="n">
-        <v>61706.8</v>
+        <v>63018</v>
       </c>
       <c r="H79" t="n">
-        <v>62451.5</v>
+        <v>62991</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>62137.5</v>
+        <v>62993.5</v>
       </c>
       <c r="B80" t="n">
-        <v>62484.5</v>
+        <v>63019</v>
       </c>
       <c r="C80" t="n">
-        <v>62125.5</v>
+        <v>62950</v>
       </c>
       <c r="D80" t="n">
-        <v>62455</v>
+        <v>63003.5</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>45400.51041666666</v>
+        <v>45409.40625</v>
       </c>
       <c r="F80" t="n">
-        <v>6530</v>
+        <v>2668</v>
       </c>
       <c r="G80" t="n">
-        <v>61753.3</v>
+        <v>63014</v>
       </c>
       <c r="H80" t="n">
-        <v>62346.9</v>
+        <v>62991.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>62276.5</v>
+        <v>62975.5</v>
       </c>
       <c r="B81" t="n">
-        <v>62276.5</v>
+        <v>63005.5</v>
       </c>
       <c r="C81" t="n">
-        <v>61613</v>
+        <v>62901</v>
       </c>
       <c r="D81" t="n">
-        <v>62136</v>
+        <v>62994</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>45400.52083333334</v>
+        <v>45409.41666666666</v>
       </c>
       <c r="F81" t="n">
-        <v>17376</v>
+        <v>3431</v>
       </c>
       <c r="G81" t="n">
-        <v>61813.8</v>
+        <v>63015.4</v>
       </c>
       <c r="H81" t="n">
-        <v>62323.4</v>
+        <v>62986.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>62252.5</v>
+        <v>62954.5</v>
       </c>
       <c r="B82" t="n">
-        <v>62337.5</v>
+        <v>63001</v>
       </c>
       <c r="C82" t="n">
-        <v>62035.5</v>
+        <v>62883.5</v>
       </c>
       <c r="D82" t="n">
-        <v>62260</v>
+        <v>62975.5</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>45400.53125</v>
+        <v>45409.42708333334</v>
       </c>
       <c r="F82" t="n">
-        <v>6602</v>
+        <v>4959</v>
       </c>
       <c r="G82" t="n">
-        <v>61867.1</v>
+        <v>63011</v>
       </c>
       <c r="H82" t="n">
-        <v>62299.8</v>
+        <v>62975.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>62262</v>
+        <v>62836.5</v>
       </c>
       <c r="B83" t="n">
-        <v>62394.5</v>
+        <v>62963</v>
       </c>
       <c r="C83" t="n">
-        <v>62113.5</v>
+        <v>62811.5</v>
       </c>
       <c r="D83" t="n">
-        <v>62258</v>
+        <v>62963</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>45400.54166666666</v>
+        <v>45409.4375</v>
       </c>
       <c r="F83" t="n">
-        <v>7142</v>
+        <v>8868</v>
       </c>
       <c r="G83" t="n">
-        <v>61931.1</v>
+        <v>62999</v>
       </c>
       <c r="H83" t="n">
-        <v>62287.2</v>
+        <v>62929.3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>62441</v>
+        <v>62812.5</v>
       </c>
       <c r="B84" t="n">
-        <v>62475.5</v>
+        <v>62842.5</v>
       </c>
       <c r="C84" t="n">
-        <v>62100</v>
+        <v>62739.5</v>
       </c>
       <c r="D84" t="n">
-        <v>62241</v>
+        <v>62836.5</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>45400.55208333334</v>
+        <v>45409.44791666666</v>
       </c>
       <c r="F84" t="n">
-        <v>7772</v>
+        <v>11224</v>
       </c>
       <c r="G84" t="n">
-        <v>61996.4</v>
+        <v>62989.6</v>
       </c>
       <c r="H84" t="n">
-        <v>62338.5</v>
+        <v>62890.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>62395.5</v>
+        <v>62859.5</v>
       </c>
       <c r="B85" t="n">
-        <v>62586.5</v>
+        <v>62872</v>
       </c>
       <c r="C85" t="n">
-        <v>61898</v>
+        <v>62678.5</v>
       </c>
       <c r="D85" t="n">
-        <v>62446.5</v>
+        <v>62812.5</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>45400.5625</v>
+        <v>45409.45833333334</v>
       </c>
       <c r="F85" t="n">
-        <v>17335</v>
+        <v>18207</v>
       </c>
       <c r="G85" t="n">
-        <v>62045</v>
+        <v>62981</v>
       </c>
       <c r="H85" t="n">
-        <v>62357.5</v>
+        <v>62880.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>62808.5</v>
+        <v>62903.5</v>
       </c>
       <c r="B86" t="n">
-        <v>62846</v>
+        <v>62924.5</v>
       </c>
       <c r="C86" t="n">
-        <v>62315</v>
+        <v>62798</v>
       </c>
       <c r="D86" t="n">
-        <v>62381</v>
+        <v>62868</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>45400.57291666666</v>
+        <v>45409.46875</v>
       </c>
       <c r="F86" t="n">
-        <v>14604</v>
+        <v>9096</v>
       </c>
       <c r="G86" t="n">
-        <v>62117.8</v>
+        <v>62978.3</v>
       </c>
       <c r="H86" t="n">
-        <v>62507.8</v>
+        <v>62887.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>63474.5</v>
+        <v>62923.5</v>
       </c>
       <c r="B87" t="n">
-        <v>63485.5</v>
+        <v>62951.5</v>
       </c>
       <c r="C87" t="n">
-        <v>62580</v>
+        <v>62861.5</v>
       </c>
       <c r="D87" t="n">
-        <v>62807.5</v>
+        <v>62917</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>45400.58333333334</v>
+        <v>45409.47916666666</v>
       </c>
       <c r="F87" t="n">
-        <v>28178</v>
+        <v>15643</v>
       </c>
       <c r="G87" t="n">
-        <v>62213.2</v>
+        <v>62974.9</v>
       </c>
       <c r="H87" t="n">
-        <v>62830</v>
+        <v>62899.8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>63690.5</v>
+        <v>62876</v>
       </c>
       <c r="B88" t="n">
-        <v>63861.5</v>
+        <v>62973</v>
       </c>
       <c r="C88" t="n">
-        <v>63332.5</v>
+        <v>62860.5</v>
       </c>
       <c r="D88" t="n">
-        <v>63475.5</v>
+        <v>62922.5</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>45400.59375</v>
+        <v>45409.48958333334</v>
       </c>
       <c r="F88" t="n">
-        <v>22462</v>
+        <v>8495</v>
       </c>
       <c r="G88" t="n">
-        <v>62323.4</v>
+        <v>62966.7</v>
       </c>
       <c r="H88" t="n">
-        <v>63116.9</v>
+        <v>62891.8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>63727.5</v>
+        <v>63162.5</v>
       </c>
       <c r="B89" t="n">
-        <v>63994</v>
+        <v>63180</v>
       </c>
       <c r="C89" t="n">
-        <v>63482.5</v>
+        <v>62823</v>
       </c>
       <c r="D89" t="n">
-        <v>63713</v>
+        <v>62885</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>45400.60416666666</v>
+        <v>45409.5</v>
       </c>
       <c r="F89" t="n">
-        <v>14964</v>
+        <v>21163</v>
       </c>
       <c r="G89" t="n">
-        <v>62439.1</v>
+        <v>62969.1</v>
       </c>
       <c r="H89" t="n">
-        <v>63320.4</v>
+        <v>62982.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>63831</v>
+        <v>62994</v>
       </c>
       <c r="B90" t="n">
-        <v>63849.5</v>
+        <v>63163.5</v>
       </c>
       <c r="C90" t="n">
-        <v>63402.5</v>
+        <v>62970</v>
       </c>
       <c r="D90" t="n">
-        <v>63732</v>
+        <v>63162.5</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>45400.61458333334</v>
+        <v>45409.51041666666</v>
       </c>
       <c r="F90" t="n">
-        <v>10544</v>
+        <v>12306</v>
       </c>
       <c r="G90" t="n">
-        <v>62548.5</v>
+        <v>62963.2</v>
       </c>
       <c r="H90" t="n">
-        <v>63490.6</v>
+        <v>62986</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>63910</v>
+        <v>63071</v>
       </c>
       <c r="B91" t="n">
-        <v>64144</v>
+        <v>63071</v>
       </c>
       <c r="C91" t="n">
-        <v>63697.5</v>
+        <v>62953</v>
       </c>
       <c r="D91" t="n">
-        <v>63850</v>
+        <v>62987.5</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>45400.625</v>
+        <v>45409.52083333334</v>
       </c>
       <c r="F91" t="n">
-        <v>18403</v>
+        <v>12507</v>
       </c>
       <c r="G91" t="n">
-        <v>62665.9</v>
+        <v>62964.1</v>
       </c>
       <c r="H91" t="n">
-        <v>63630.4</v>
+        <v>63014.4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>63593</v>
+        <v>63037</v>
       </c>
       <c r="B92" t="n">
-        <v>63978.5</v>
+        <v>63113</v>
       </c>
       <c r="C92" t="n">
-        <v>63567</v>
+        <v>62982.5</v>
       </c>
       <c r="D92" t="n">
-        <v>63903</v>
+        <v>63080</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>45400.63541666666</v>
+        <v>45409.53125</v>
       </c>
       <c r="F92" t="n">
-        <v>10895</v>
+        <v>4440</v>
       </c>
       <c r="G92" t="n">
-        <v>62762.4</v>
+        <v>62967.1</v>
       </c>
       <c r="H92" t="n">
-        <v>63617.9</v>
+        <v>63021.9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>63716.5</v>
+        <v>63071</v>
       </c>
       <c r="B93" t="n">
-        <v>63801</v>
+        <v>63091</v>
       </c>
       <c r="C93" t="n">
-        <v>63537.5</v>
+        <v>63011.5</v>
       </c>
       <c r="D93" t="n">
-        <v>63595.5</v>
+        <v>63054</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>45400.64583333334</v>
+        <v>45409.54166666666</v>
       </c>
       <c r="F93" t="n">
-        <v>7809</v>
+        <v>3303</v>
       </c>
       <c r="G93" t="n">
-        <v>62867.3</v>
+        <v>62971.7</v>
       </c>
       <c r="H93" t="n">
-        <v>63650.8</v>
+        <v>63038.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>63504</v>
+        <v>63131</v>
       </c>
       <c r="B94" t="n">
-        <v>63728</v>
+        <v>63281</v>
       </c>
       <c r="C94" t="n">
-        <v>63448</v>
+        <v>63072</v>
       </c>
       <c r="D94" t="n">
-        <v>63728</v>
+        <v>63072</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>45400.65625</v>
+        <v>45409.55208333334</v>
       </c>
       <c r="F94" t="n">
-        <v>8378</v>
+        <v>9010</v>
       </c>
       <c r="G94" t="n">
-        <v>62950.8</v>
+        <v>62977.9</v>
       </c>
       <c r="H94" t="n">
-        <v>63601.9</v>
+        <v>63069.2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>63404</v>
+        <v>63204.5</v>
       </c>
       <c r="B95" t="n">
-        <v>63625.5</v>
+        <v>63268</v>
       </c>
       <c r="C95" t="n">
-        <v>63294.5</v>
+        <v>63080.5</v>
       </c>
       <c r="D95" t="n">
-        <v>63512</v>
+        <v>63131</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>45400.66666666666</v>
+        <v>45409.5625</v>
       </c>
       <c r="F95" t="n">
-        <v>11619</v>
+        <v>6704</v>
       </c>
       <c r="G95" t="n">
-        <v>63000.2</v>
+        <v>62986.7</v>
       </c>
       <c r="H95" t="n">
-        <v>63535.9</v>
+        <v>63114.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>63817.5</v>
+        <v>63232</v>
       </c>
       <c r="B96" t="n">
-        <v>63879.5</v>
+        <v>63247.5</v>
       </c>
       <c r="C96" t="n">
-        <v>63316.5</v>
+        <v>63160.5</v>
       </c>
       <c r="D96" t="n">
-        <v>63394</v>
+        <v>63213</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>45400.67708333334</v>
+        <v>45409.57291666666</v>
       </c>
       <c r="F96" t="n">
-        <v>12113</v>
+        <v>4150</v>
       </c>
       <c r="G96" t="n">
-        <v>63047.1</v>
+        <v>62996.8</v>
       </c>
       <c r="H96" t="n">
-        <v>63629.8</v>
+        <v>63153.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>63567</v>
+        <v>63310</v>
       </c>
       <c r="B97" t="n">
-        <v>63825.5</v>
+        <v>63386.5</v>
       </c>
       <c r="C97" t="n">
-        <v>63483</v>
+        <v>63147.5</v>
       </c>
       <c r="D97" t="n">
-        <v>63813</v>
+        <v>63237.5</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>45400.6875</v>
+        <v>45409.58333333334</v>
       </c>
       <c r="F97" t="n">
-        <v>6944</v>
+        <v>9402</v>
       </c>
       <c r="G97" t="n">
-        <v>63093.4</v>
+        <v>63016.7</v>
       </c>
       <c r="H97" t="n">
-        <v>63608.8</v>
+        <v>63205.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>63546.5</v>
+        <v>63176</v>
       </c>
       <c r="B98" t="n">
-        <v>63663</v>
+        <v>63425.5</v>
       </c>
       <c r="C98" t="n">
-        <v>63391</v>
+        <v>63172.5</v>
       </c>
       <c r="D98" t="n">
-        <v>63536</v>
+        <v>63307.5</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>45400.69791666666</v>
+        <v>45409.59375</v>
       </c>
       <c r="F98" t="n">
-        <v>9718</v>
+        <v>9396</v>
       </c>
       <c r="G98" t="n">
-        <v>63140.7</v>
+        <v>63026.4</v>
       </c>
       <c r="H98" t="n">
-        <v>63588.1</v>
+        <v>63195.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>63527.5</v>
+        <v>63114.5</v>
       </c>
       <c r="B99" t="n">
-        <v>63633</v>
+        <v>63284.5</v>
       </c>
       <c r="C99" t="n">
-        <v>63340.5</v>
+        <v>63089</v>
       </c>
       <c r="D99" t="n">
-        <v>63538</v>
+        <v>63176</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>45400.70833333334</v>
+        <v>45409.60416666666</v>
       </c>
       <c r="F99" t="n">
-        <v>5702</v>
+        <v>6592</v>
       </c>
       <c r="G99" t="n">
-        <v>63194.2</v>
+        <v>63031.9</v>
       </c>
       <c r="H99" t="n">
-        <v>63567.9</v>
+        <v>63168.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>63408.5</v>
+        <v>63153.5</v>
       </c>
       <c r="B100" t="n">
-        <v>63576.5</v>
+        <v>63173.5</v>
       </c>
       <c r="C100" t="n">
-        <v>63243.5</v>
+        <v>63076.5</v>
       </c>
       <c r="D100" t="n">
-        <v>63525.5</v>
+        <v>63110.5</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>45400.71875</v>
+        <v>45409.61458333334</v>
       </c>
       <c r="F100" t="n">
-        <v>10106</v>
+        <v>4275</v>
       </c>
       <c r="G100" t="n">
-        <v>63257.7</v>
+        <v>63039.9</v>
       </c>
       <c r="H100" t="n">
-        <v>63514.8</v>
+        <v>63163.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>63305.5</v>
+        <v>63133</v>
       </c>
       <c r="B101" t="n">
-        <v>63453</v>
+        <v>63153.5</v>
       </c>
       <c r="C101" t="n">
-        <v>63191</v>
+        <v>63097</v>
       </c>
       <c r="D101" t="n">
-        <v>63398.5</v>
+        <v>63152.5</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>45400.72916666666</v>
+        <v>45409.625</v>
       </c>
       <c r="F101" t="n">
-        <v>7648</v>
+        <v>614</v>
       </c>
       <c r="G101" t="n">
-        <v>63309.2</v>
+        <v>63047.8</v>
       </c>
       <c r="H101" t="n">
-        <v>63445</v>
+        <v>63153.4</v>
       </c>
     </row>
   </sheetData>
